--- a/Voron BOM.xlsx
+++ b/Voron BOM.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zachary Cohen\Documents\GitHub\Voron2.4Build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A8B4BA-C52B-46A5-B6CC-70EBC5BDFA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849AFEF3-651C-4E08-ABF7-99733B431E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Voron 2.4 BOM" sheetId="1" r:id="rId1"/>
     <sheet name="Mods" sheetId="2" r:id="rId2"/>
+    <sheet name="Components List" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Voron 2.4 BOM'!$A$1:$F$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Voron 2.4 BOM'!$A$1:$I$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="178">
   <si>
     <t>Category</t>
   </si>
@@ -502,13 +503,73 @@
     <t>Received</t>
   </si>
   <si>
-    <t>Etsy-EntropySystems</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Midwest Steel</t>
+  </si>
+  <si>
+    <t>Bigtreetech Octopus</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4</t>
+  </si>
+  <si>
+    <t>Meanwell 24v PSU</t>
+  </si>
+  <si>
+    <t>120v SSSR</t>
+  </si>
+  <si>
+    <t>Bigtreetech UPS</t>
+  </si>
+  <si>
+    <t>Bigtreetech Relay</t>
+  </si>
+  <si>
+    <t>4 channel relay</t>
+  </si>
+  <si>
+    <t>Max7219</t>
+  </si>
+  <si>
+    <t>Klipper Expander</t>
+  </si>
+  <si>
+    <t>BTT TFT</t>
+  </si>
+  <si>
+    <t>Endoscope</t>
+  </si>
+  <si>
+    <t>XH-W1209 Temperature Relay</t>
+  </si>
+  <si>
+    <t>Inline heater</t>
+  </si>
+  <si>
+    <t>Chamber heater</t>
+  </si>
+  <si>
+    <t>BTT Filament sensor</t>
+  </si>
+  <si>
+    <t>BTT Hermit Crab</t>
+  </si>
+  <si>
+    <t>https://smile.amazon.com/gp/product/B08PQPK379?psc=1</t>
+  </si>
+  <si>
+    <t>https://www.nglantz.com/2233922/Product/Coroplast_EBC01</t>
+  </si>
+  <si>
+    <t>Glantz</t>
   </si>
 </sst>
 </file>
@@ -518,7 +579,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -586,6 +647,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -604,9 +671,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -623,7 +691,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -633,9 +700,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -948,24 +1017,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:U1020"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H126" sqref="H126"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="55.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="14" customWidth="1"/>
     <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="15"/>
+    <col min="8" max="8" width="14.42578125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -978,7 +1047,7 @@
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>152</v>
       </c>
       <c r="E1" s="11" t="s">
@@ -987,172 +1056,235 @@
       <c r="F1" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>154</v>
       </c>
       <c r="J1" s="12"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="17"/>
+      <c r="G2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="17"/>
+      <c r="G3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="17"/>
+      <c r="G4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="17"/>
+      <c r="G5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="17"/>
+      <c r="G6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="17"/>
+      <c r="G7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="17"/>
+      <c r="G8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="17"/>
+      <c r="G9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="17"/>
+      <c r="G10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="17"/>
+      <c r="G11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="17"/>
+      <c r="G12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="17"/>
+      <c r="G13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="17"/>
+      <c r="G14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="17"/>
+      <c r="G15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="17"/>
+      <c r="G16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="17"/>
+      <c r="G17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="17"/>
+      <c r="G18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="17"/>
+      <c r="G19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="17"/>
+      <c r="G20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="18"/>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="17"/>
+      <c r="G21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="G22" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="17">
         <v>48.1</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -1163,14 +1295,14 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <f>SUM(D2:D23)</f>
         <v>48.1</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="16"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1189,9 +1321,9 @@
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="19"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1201,9 +1333,12 @@
       <c r="C26" s="2">
         <v>3</v>
       </c>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="18"/>
+      <c r="G26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="2" t="s">
         <v>30</v>
@@ -1211,9 +1346,12 @@
       <c r="C27" s="2">
         <v>20</v>
       </c>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="18"/>
+      <c r="G27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
         <v>31</v>
@@ -1221,9 +1359,12 @@
       <c r="C28" s="2">
         <v>2</v>
       </c>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="18"/>
+      <c r="G28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
         <v>32</v>
@@ -1231,9 +1372,12 @@
       <c r="C29" s="2">
         <v>4</v>
       </c>
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="18"/>
+      <c r="G29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
         <v>33</v>
@@ -1241,9 +1385,12 @@
       <c r="C30" s="2">
         <v>12</v>
       </c>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="18"/>
+      <c r="G30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
         <v>34</v>
@@ -1251,9 +1398,12 @@
       <c r="C31" s="2">
         <v>4</v>
       </c>
-      <c r="D31" s="19"/>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="18"/>
+      <c r="G31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
         <v>35</v>
@@ -1261,9 +1411,12 @@
       <c r="C32" s="2">
         <v>4</v>
       </c>
-      <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="18"/>
+      <c r="G32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
         <v>36</v>
@@ -1271,9 +1424,12 @@
       <c r="C33" s="2">
         <v>4</v>
       </c>
-      <c r="D33" s="19"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="18"/>
+      <c r="G33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="2" t="s">
         <v>37</v>
@@ -1281,9 +1437,12 @@
       <c r="C34" s="2">
         <v>4</v>
       </c>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="18"/>
+      <c r="G34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="2" t="s">
         <v>38</v>
@@ -1291,9 +1450,12 @@
       <c r="C35" s="2">
         <v>4</v>
       </c>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="18"/>
+      <c r="G35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="2" t="s">
         <v>39</v>
@@ -1301,9 +1463,12 @@
       <c r="C36" s="2">
         <v>1</v>
       </c>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D36" s="18"/>
+      <c r="G36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="2" t="s">
         <v>40</v>
@@ -1311,9 +1476,12 @@
       <c r="C37" s="2">
         <v>4</v>
       </c>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D37" s="18"/>
+      <c r="G37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
         <v>41</v>
@@ -1321,14 +1489,14 @@
       <c r="C38" s="2">
         <v>2</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="17">
         <v>145.19999999999999</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="2" t="s">
         <v>43</v>
@@ -1336,30 +1504,30 @@
       <c r="C39" s="2">
         <v>8</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="17">
         <v>99</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="20">
+      <c r="D40" s="19">
         <f>SUM(D26:D39)</f>
         <v>244.2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="18"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -1369,23 +1537,26 @@
       <c r="C42" s="2">
         <v>6</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="17">
         <v>0</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>47</v>
+      <c r="E42" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="F42" s="13">
         <v>44499</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H42" s="15">
+        <v>155</v>
+      </c>
+      <c r="H42" s="14">
         <v>53.98</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I42" s="13">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
         <v>48</v>
@@ -1393,14 +1564,14 @@
       <c r="C43" s="2">
         <v>3</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="17">
         <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="2" t="s">
         <v>49</v>
@@ -1408,14 +1579,14 @@
       <c r="C44" s="2">
         <v>1</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="17">
         <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="2" t="s">
         <v>50</v>
@@ -1423,14 +1594,14 @@
       <c r="C45" s="2">
         <v>1</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="17">
         <v>0</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="2" t="s">
         <v>51</v>
@@ -1438,14 +1609,14 @@
       <c r="C46" s="2">
         <v>1</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="17">
         <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="2" t="s">
         <v>52</v>
@@ -1453,14 +1624,14 @@
       <c r="C47" s="2">
         <v>1</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="17">
         <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="2" t="s">
         <v>53</v>
@@ -1468,14 +1639,14 @@
       <c r="C48" s="2">
         <v>1</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="17">
         <v>10.99</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="2" t="s">
         <v>55</v>
@@ -1483,14 +1654,14 @@
       <c r="C49" s="2">
         <v>1</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="17">
         <v>5.0999999999999996</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="2" t="s">
         <v>57</v>
@@ -1498,14 +1669,14 @@
       <c r="C50" s="2">
         <v>1</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="17">
         <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="2" t="s">
         <v>58</v>
@@ -1513,14 +1684,14 @@
       <c r="C51" s="2">
         <v>3</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="17">
         <v>0</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="2" t="s">
         <v>59</v>
@@ -1528,14 +1699,14 @@
       <c r="C52" s="2">
         <v>2</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="17">
         <v>0</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="2" t="s">
         <v>60</v>
@@ -1543,14 +1714,14 @@
       <c r="C53" s="2">
         <v>7</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="17">
         <v>0</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="2" t="s">
         <v>61</v>
@@ -1558,14 +1729,14 @@
       <c r="C54" s="2">
         <v>2</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="17">
         <v>0</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="2" t="s">
         <v>62</v>
@@ -1573,14 +1744,14 @@
       <c r="C55" s="2">
         <v>1</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="17">
         <v>0</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="2" t="s">
         <v>63</v>
@@ -1588,14 +1759,14 @@
       <c r="C56" s="2">
         <v>1</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="17">
         <v>0</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="2" t="s">
         <v>64</v>
@@ -1603,14 +1774,14 @@
       <c r="C57" s="2">
         <v>1</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="17">
         <v>0</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="2" t="s">
         <v>65</v>
@@ -1618,14 +1789,14 @@
       <c r="C58" s="2">
         <v>1</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="17">
         <v>0</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="2" t="s">
         <v>66</v>
@@ -1633,14 +1804,14 @@
       <c r="C59" s="2">
         <v>1</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="17">
         <v>0</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="2" t="s">
         <v>67</v>
@@ -1648,14 +1819,14 @@
       <c r="C60" s="2">
         <v>1</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="17">
         <v>0</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="2" t="s">
         <v>68</v>
@@ -1663,14 +1834,14 @@
       <c r="C61" s="2">
         <v>1</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="17">
         <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="2" t="s">
         <v>69</v>
@@ -1678,14 +1849,14 @@
       <c r="C62" s="2">
         <v>1</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="17">
         <v>0</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
         <v>70</v>
@@ -1693,7 +1864,7 @@
       <c r="C63" s="2">
         <v>1</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="17">
         <v>10.99</v>
       </c>
       <c r="E63" s="4" t="s">
@@ -1703,13 +1874,16 @@
         <v>44499</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H63" s="15">
+        <v>155</v>
+      </c>
+      <c r="H63" s="14">
         <v>9.99</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I63" s="13">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
         <v>72</v>
@@ -1717,14 +1891,14 @@
       <c r="C64" s="2">
         <v>1</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="17">
         <v>4.6399999999999997</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
         <v>74</v>
@@ -1732,30 +1906,30 @@
       <c r="C65" s="2">
         <v>1</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="17">
         <v>15.81</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="16">
+      <c r="D66" s="15">
         <f>SUM(D42:D65)</f>
         <v>47.53</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="18"/>
+      <c r="D67" s="17"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>76</v>
       </c>
@@ -1765,14 +1939,14 @@
       <c r="C68" s="2">
         <v>4</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68" s="17">
         <v>4.6399999999999997</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="2" t="s">
         <v>79</v>
@@ -1780,14 +1954,14 @@
       <c r="C69" s="2">
         <v>4</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="17">
         <v>0</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="2" t="s">
         <v>80</v>
@@ -1795,9 +1969,12 @@
       <c r="C70" s="2">
         <v>1</v>
       </c>
-      <c r="D70" s="19"/>
-    </row>
-    <row r="71" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D70" s="18"/>
+      <c r="E70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="2" t="s">
         <v>81</v>
@@ -1805,14 +1982,14 @@
       <c r="C71" s="2">
         <v>3</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71" s="17">
         <v>3.05</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="2" t="s">
         <v>83</v>
@@ -1820,9 +1997,13 @@
       <c r="C72" s="2">
         <v>1</v>
       </c>
-      <c r="D72" s="19"/>
-    </row>
-    <row r="73" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D72" s="18"/>
+      <c r="E72" s="21"/>
+      <c r="G72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="2" t="s">
         <v>84</v>
@@ -1830,9 +2011,13 @@
       <c r="C73" s="2">
         <v>2</v>
       </c>
-      <c r="D73" s="19"/>
-    </row>
-    <row r="74" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D73" s="18"/>
+      <c r="E73" s="21"/>
+      <c r="G73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="2" t="s">
         <v>85</v>
@@ -1840,9 +2025,23 @@
       <c r="C74" s="2">
         <v>10</v>
       </c>
-      <c r="D74" s="19"/>
-    </row>
-    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D74" s="18">
+        <v>91.99</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F74" s="13">
+        <v>44505</v>
+      </c>
+      <c r="G74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H74" s="14">
+        <v>91.99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="6" t="s">
         <v>86</v>
@@ -1850,24 +2049,27 @@
       <c r="C75" s="2">
         <v>4</v>
       </c>
-      <c r="D75" s="19"/>
-    </row>
-    <row r="76" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D75" s="18"/>
+      <c r="E75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="16">
+      <c r="D76" s="15">
         <f>SUM(D68:D75)</f>
-        <v>7.6899999999999995</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+        <v>99.679999999999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="19"/>
-    </row>
-    <row r="78" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D77" s="18"/>
+    </row>
+    <row r="78" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
@@ -1877,9 +2079,9 @@
       <c r="C78" s="2">
         <v>1</v>
       </c>
-      <c r="D78" s="19"/>
-    </row>
-    <row r="79" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D78" s="18"/>
+    </row>
+    <row r="79" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="2" t="s">
         <v>89</v>
@@ -1887,14 +2089,14 @@
       <c r="C79" s="2">
         <v>1</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D79" s="17">
         <v>0</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="2" t="s">
         <v>90</v>
@@ -1902,14 +2104,14 @@
       <c r="C80" s="2">
         <v>2</v>
       </c>
-      <c r="D80" s="18">
+      <c r="D80" s="17">
         <v>0</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="2" t="s">
         <v>91</v>
@@ -1917,7 +2119,7 @@
       <c r="C81" s="2">
         <v>1</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D81" s="17">
         <v>0</v>
       </c>
       <c r="E81" s="7" t="s">
@@ -1932,9 +2134,9 @@
       <c r="C82" s="2">
         <v>1</v>
       </c>
-      <c r="D82" s="19"/>
-    </row>
-    <row r="83" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D82" s="18"/>
+    </row>
+    <row r="83" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="2" t="s">
         <v>93</v>
@@ -1942,14 +2144,14 @@
       <c r="C83" s="2">
         <v>1</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D83" s="17">
         <v>0</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="2" t="s">
         <v>94</v>
@@ -1957,14 +2159,14 @@
       <c r="C84" s="2">
         <v>1</v>
       </c>
-      <c r="D84" s="18">
+      <c r="D84" s="17">
         <v>0</v>
       </c>
       <c r="E84" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="2" t="s">
         <v>95</v>
@@ -1972,14 +2174,14 @@
       <c r="C85" s="2">
         <v>1</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D85" s="17">
         <v>0</v>
       </c>
       <c r="E85" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="2" t="s">
         <v>96</v>
@@ -1987,14 +2189,14 @@
       <c r="C86" s="2">
         <v>8</v>
       </c>
-      <c r="D86" s="18">
+      <c r="D86" s="17">
         <v>0</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="2" t="s">
         <v>97</v>
@@ -2002,7 +2204,7 @@
       <c r="C87" s="2">
         <v>1</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D87" s="17">
         <v>0</v>
       </c>
       <c r="E87" s="7" t="s">
@@ -2013,7 +2215,7 @@
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="16">
+      <c r="D88" s="15">
         <f>SUM(D78:D87)</f>
         <v>0</v>
       </c>
@@ -2022,9 +2224,9 @@
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="18"/>
-    </row>
-    <row r="90" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D89" s="17"/>
+    </row>
+    <row r="90" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
@@ -2034,14 +2236,14 @@
       <c r="C90" s="2">
         <v>40</v>
       </c>
-      <c r="D90" s="18">
+      <c r="D90" s="17">
         <v>0</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="2" t="s">
         <v>100</v>
@@ -2049,14 +2251,14 @@
       <c r="C91" s="2">
         <v>1</v>
       </c>
-      <c r="D91" s="18">
+      <c r="D91" s="17">
         <v>0</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="2" t="s">
         <v>101</v>
@@ -2064,14 +2266,14 @@
       <c r="C92" s="2">
         <v>1</v>
       </c>
-      <c r="D92" s="18">
+      <c r="D92" s="17">
         <v>0</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="2" t="s">
         <v>102</v>
@@ -2079,14 +2281,14 @@
       <c r="C93" s="2">
         <v>7</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D93" s="17">
         <v>0</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="2" t="s">
         <v>103</v>
@@ -2094,14 +2296,14 @@
       <c r="C94" s="2">
         <v>7</v>
       </c>
-      <c r="D94" s="18">
+      <c r="D94" s="17">
         <v>0</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="2" t="s">
         <v>104</v>
@@ -2109,14 +2311,14 @@
       <c r="C95" s="2">
         <v>6</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="17">
         <v>0</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="2" t="s">
         <v>105</v>
@@ -2124,14 +2326,14 @@
       <c r="C96" s="2">
         <v>4</v>
       </c>
-      <c r="D96" s="18">
+      <c r="D96" s="17">
         <v>0</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="2" t="s">
         <v>106</v>
@@ -2139,14 +2341,14 @@
       <c r="C97" s="2">
         <v>1</v>
       </c>
-      <c r="D97" s="18">
+      <c r="D97" s="17">
         <v>0</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="2" t="s">
         <v>107</v>
@@ -2154,14 +2356,14 @@
       <c r="C98" s="2">
         <v>2</v>
       </c>
-      <c r="D98" s="18">
+      <c r="D98" s="17">
         <v>0</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="2" t="s">
         <v>108</v>
@@ -2169,14 +2371,14 @@
       <c r="C99" s="2">
         <v>4</v>
       </c>
-      <c r="D99" s="18">
+      <c r="D99" s="17">
         <v>0</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="2" t="s">
         <v>109</v>
@@ -2184,14 +2386,14 @@
       <c r="C100" s="2">
         <v>1</v>
       </c>
-      <c r="D100" s="18">
+      <c r="D100" s="17">
         <v>0</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="2" t="s">
         <v>110</v>
@@ -2199,14 +2401,14 @@
       <c r="C101" s="2">
         <v>2</v>
       </c>
-      <c r="D101" s="18">
+      <c r="D101" s="17">
         <v>0</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="2" t="s">
         <v>111</v>
@@ -2214,14 +2416,14 @@
       <c r="C102" s="2">
         <v>40</v>
       </c>
-      <c r="D102" s="18">
+      <c r="D102" s="17">
         <v>0</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="2" t="s">
         <v>112</v>
@@ -2229,14 +2431,14 @@
       <c r="C103" s="2">
         <v>40</v>
       </c>
-      <c r="D103" s="18">
+      <c r="D103" s="17">
         <v>0</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="2" t="s">
         <v>113</v>
@@ -2244,14 +2446,14 @@
       <c r="C104" s="2">
         <v>40</v>
       </c>
-      <c r="D104" s="18">
+      <c r="D104" s="17">
         <v>0</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="2" t="s">
         <v>114</v>
@@ -2259,11 +2461,14 @@
       <c r="C105" s="2">
         <v>2</v>
       </c>
-      <c r="D105" s="18">
+      <c r="D105" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="6" t="s">
         <v>115</v>
@@ -2271,23 +2476,23 @@
       <c r="C106" s="2">
         <v>1</v>
       </c>
-      <c r="D106" s="18">
+      <c r="D106" s="17">
         <v>14.7</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="16">
+      <c r="D107" s="15">
         <f>SUM(D90:D106)</f>
         <v>14.7</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>117</v>
       </c>
@@ -2297,9 +2502,9 @@
       <c r="C108" s="2">
         <v>2</v>
       </c>
-      <c r="D108" s="19"/>
-    </row>
-    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D108" s="18"/>
+    </row>
+    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="6" t="s">
         <v>119</v>
@@ -2307,9 +2512,21 @@
       <c r="C109" s="2">
         <v>1</v>
       </c>
-      <c r="D109" s="19"/>
-    </row>
-    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D109" s="18"/>
+      <c r="E109" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F109" s="13">
+        <v>44509</v>
+      </c>
+      <c r="G109" t="s">
+        <v>177</v>
+      </c>
+      <c r="H109" s="14">
+        <v>31.68</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="6" t="s">
         <v>120</v>
@@ -2317,9 +2534,18 @@
       <c r="C110" s="2">
         <v>2</v>
       </c>
-      <c r="D110" s="19"/>
-    </row>
-    <row r="111" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D110" s="18"/>
+      <c r="F110" s="13">
+        <v>44499</v>
+      </c>
+      <c r="G110" t="s">
+        <v>155</v>
+      </c>
+      <c r="H110" s="14">
+        <v>42.34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="6" t="s">
         <v>121</v>
@@ -2327,9 +2553,18 @@
       <c r="C111" s="2">
         <v>2</v>
       </c>
-      <c r="D111" s="19"/>
-    </row>
-    <row r="112" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D111" s="18"/>
+      <c r="F111" s="13">
+        <v>44499</v>
+      </c>
+      <c r="G111" t="s">
+        <v>155</v>
+      </c>
+      <c r="H111" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="2" t="s">
         <v>122</v>
@@ -2337,13 +2572,22 @@
       <c r="C112" s="2">
         <v>1</v>
       </c>
-      <c r="D112" s="19"/>
+      <c r="D112" s="18"/>
+      <c r="F112" s="13">
+        <v>44499</v>
+      </c>
+      <c r="G112" t="s">
+        <v>155</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="113" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="16">
+      <c r="D113" s="15">
         <f>SUM(D108:D112)</f>
         <v>0</v>
       </c>
@@ -2352,7 +2596,7 @@
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="18"/>
+      <c r="D114" s="17"/>
       <c r="E114" s="7"/>
     </row>
     <row r="115" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2365,7 +2609,7 @@
       <c r="C115" s="2">
         <v>1</v>
       </c>
-      <c r="D115" s="18">
+      <c r="D115" s="17">
         <v>14.99</v>
       </c>
       <c r="E115" s="4" t="s">
@@ -2375,13 +2619,13 @@
         <v>44499</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H115" s="15">
+        <v>155</v>
+      </c>
+      <c r="H115" s="14">
         <v>14.24</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="2" t="s">
         <v>126</v>
@@ -2389,7 +2633,7 @@
       <c r="C116" s="2">
         <v>1</v>
       </c>
-      <c r="D116" s="18">
+      <c r="D116" s="17">
         <v>0</v>
       </c>
       <c r="E116" s="7" t="s">
@@ -2404,14 +2648,23 @@
       <c r="C117" s="2">
         <v>1</v>
       </c>
-      <c r="D117" s="18">
+      <c r="D117" s="17">
         <v>61.63</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F117" s="13">
+        <v>44502</v>
+      </c>
+      <c r="G117" t="s">
+        <v>158</v>
+      </c>
+      <c r="H117" s="14">
+        <v>52.56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="2" t="s">
         <v>129</v>
@@ -2419,7 +2672,7 @@
       <c r="C118" s="2">
         <v>1</v>
       </c>
-      <c r="D118" s="18">
+      <c r="D118" s="17">
         <v>0</v>
       </c>
       <c r="E118" s="7" t="s">
@@ -2428,7 +2681,7 @@
     </row>
     <row r="119" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
-      <c r="D119" s="16">
+      <c r="D119" s="15">
         <f>SUM(D115:D118)</f>
         <v>76.62</v>
       </c>
@@ -2436,7 +2689,7 @@
     <row r="120" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
-      <c r="D120" s="18"/>
+      <c r="D120" s="17"/>
     </row>
     <row r="121" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
@@ -2445,3644 +2698,3658 @@
       <c r="B121" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D121" s="18">
+      <c r="D121" s="17">
         <v>125</v>
       </c>
-      <c r="F121" s="13">
-        <v>44498</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H121" s="15">
-        <v>133.1</v>
-      </c>
+      <c r="F121" s="13"/>
+      <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D122" s="18">
+      <c r="D122" s="17">
         <v>10</v>
       </c>
-      <c r="F122" s="13">
-        <v>44498</v>
-      </c>
-      <c r="G122" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H122" s="15">
-        <v>10</v>
-      </c>
+      <c r="F122" s="13"/>
+      <c r="G122" s="10"/>
     </row>
     <row r="123" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
-      <c r="D123" s="16">
+      <c r="D123" s="15">
         <f>SUM(D121:D122)</f>
         <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
-      <c r="D124" s="19"/>
+      <c r="D124" s="18"/>
     </row>
     <row r="125" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
-      <c r="D125" s="19">
+      <c r="D125" s="18">
         <f>D119+D113+D107+D88+D76+D66+D40+D24+D123</f>
-        <v>573.84</v>
-      </c>
-      <c r="G125" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="H125" s="15">
+        <v>665.83</v>
+      </c>
+      <c r="G125" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H125" s="14">
         <f>SUM(H2:H123)</f>
-        <v>221.31</v>
+        <v>296.77999999999997</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
-      <c r="D126" s="19"/>
+      <c r="D126" s="18"/>
     </row>
     <row r="127" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
-      <c r="D127" s="19"/>
+      <c r="D127" s="18"/>
     </row>
     <row r="128" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
-      <c r="D128" s="19"/>
+      <c r="D128" s="18"/>
     </row>
     <row r="129" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
-      <c r="D129" s="19"/>
+      <c r="D129" s="18"/>
     </row>
     <row r="130" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
-      <c r="D130" s="19"/>
+      <c r="D130" s="18"/>
     </row>
     <row r="131" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
-      <c r="D131" s="19"/>
+      <c r="D131" s="18"/>
     </row>
     <row r="132" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
-      <c r="D132" s="19"/>
+      <c r="D132" s="18"/>
     </row>
     <row r="133" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
-      <c r="D133" s="19"/>
+      <c r="D133" s="18"/>
     </row>
     <row r="134" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
-      <c r="D134" s="19"/>
+      <c r="D134" s="18"/>
     </row>
     <row r="135" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
-      <c r="D135" s="19"/>
+      <c r="D135" s="18"/>
     </row>
     <row r="136" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
-      <c r="D136" s="19"/>
+      <c r="D136" s="18"/>
     </row>
     <row r="137" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
-      <c r="D137" s="19"/>
+      <c r="D137" s="18"/>
     </row>
     <row r="138" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
-      <c r="D138" s="19"/>
+      <c r="D138" s="18"/>
     </row>
     <row r="139" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
-      <c r="D139" s="19"/>
+      <c r="D139" s="18"/>
     </row>
     <row r="140" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
-      <c r="D140" s="19"/>
+      <c r="D140" s="18"/>
     </row>
     <row r="141" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
-      <c r="D141" s="19"/>
+      <c r="D141" s="18"/>
     </row>
     <row r="142" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
-      <c r="D142" s="19"/>
+      <c r="D142" s="18"/>
     </row>
     <row r="143" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
-      <c r="D143" s="19"/>
+      <c r="D143" s="18"/>
     </row>
     <row r="144" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
-      <c r="D144" s="19"/>
+      <c r="D144" s="18"/>
     </row>
     <row r="145" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
-      <c r="D145" s="19"/>
+      <c r="D145" s="18"/>
     </row>
     <row r="146" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
-      <c r="D146" s="19"/>
+      <c r="D146" s="18"/>
     </row>
     <row r="147" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
-      <c r="D147" s="19"/>
+      <c r="D147" s="18"/>
     </row>
     <row r="148" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
-      <c r="D148" s="19"/>
+      <c r="D148" s="18"/>
     </row>
     <row r="149" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
-      <c r="D149" s="19"/>
+      <c r="D149" s="18"/>
     </row>
     <row r="150" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
-      <c r="D150" s="19"/>
+      <c r="D150" s="18"/>
     </row>
     <row r="151" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
-      <c r="D151" s="19"/>
+      <c r="D151" s="18"/>
     </row>
     <row r="152" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
-      <c r="D152" s="19"/>
+      <c r="D152" s="18"/>
     </row>
     <row r="153" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
-      <c r="D153" s="19"/>
+      <c r="D153" s="18"/>
     </row>
     <row r="154" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
-      <c r="D154" s="19"/>
+      <c r="D154" s="18"/>
     </row>
     <row r="155" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
-      <c r="D155" s="19"/>
+      <c r="D155" s="18"/>
     </row>
     <row r="156" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="D156" s="19"/>
+      <c r="D156" s="18"/>
     </row>
     <row r="157" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
-      <c r="D157" s="19"/>
+      <c r="D157" s="18"/>
     </row>
     <row r="158" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="D158" s="19"/>
+      <c r="D158" s="18"/>
     </row>
     <row r="159" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
-      <c r="D159" s="19"/>
+      <c r="D159" s="18"/>
     </row>
     <row r="160" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
-      <c r="D160" s="19"/>
+      <c r="D160" s="18"/>
     </row>
     <row r="161" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
-      <c r="D161" s="19"/>
+      <c r="D161" s="18"/>
     </row>
     <row r="162" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
-      <c r="D162" s="19"/>
+      <c r="D162" s="18"/>
     </row>
     <row r="163" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
-      <c r="D163" s="19"/>
+      <c r="D163" s="18"/>
     </row>
     <row r="164" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
-      <c r="D164" s="19"/>
+      <c r="D164" s="18"/>
     </row>
     <row r="165" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
-      <c r="D165" s="19"/>
+      <c r="D165" s="18"/>
     </row>
     <row r="166" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
-      <c r="D166" s="19"/>
+      <c r="D166" s="18"/>
     </row>
     <row r="167" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
-      <c r="D167" s="19"/>
+      <c r="D167" s="18"/>
     </row>
     <row r="168" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
-      <c r="D168" s="19"/>
+      <c r="D168" s="18"/>
     </row>
     <row r="169" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
-      <c r="D169" s="19"/>
+      <c r="D169" s="18"/>
     </row>
     <row r="170" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
-      <c r="D170" s="19"/>
+      <c r="D170" s="18"/>
     </row>
     <row r="171" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
-      <c r="D171" s="19"/>
+      <c r="D171" s="18"/>
     </row>
     <row r="172" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
-      <c r="D172" s="19"/>
+      <c r="D172" s="18"/>
     </row>
     <row r="173" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
-      <c r="D173" s="19"/>
+      <c r="D173" s="18"/>
     </row>
     <row r="174" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
-      <c r="D174" s="19"/>
+      <c r="D174" s="18"/>
     </row>
     <row r="175" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
-      <c r="D175" s="19"/>
+      <c r="D175" s="18"/>
     </row>
     <row r="176" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
-      <c r="D176" s="19"/>
+      <c r="D176" s="18"/>
     </row>
     <row r="177" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
-      <c r="D177" s="19"/>
+      <c r="D177" s="18"/>
     </row>
     <row r="178" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
-      <c r="D178" s="19"/>
+      <c r="D178" s="18"/>
     </row>
     <row r="179" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
-      <c r="D179" s="19"/>
+      <c r="D179" s="18"/>
     </row>
     <row r="180" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
-      <c r="D180" s="19"/>
+      <c r="D180" s="18"/>
     </row>
     <row r="181" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
-      <c r="D181" s="19"/>
+      <c r="D181" s="18"/>
     </row>
     <row r="182" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
-      <c r="D182" s="19"/>
+      <c r="D182" s="18"/>
     </row>
     <row r="183" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
-      <c r="D183" s="19"/>
+      <c r="D183" s="18"/>
     </row>
     <row r="184" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
-      <c r="D184" s="19"/>
+      <c r="D184" s="18"/>
     </row>
     <row r="185" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
-      <c r="D185" s="19"/>
+      <c r="D185" s="18"/>
     </row>
     <row r="186" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
-      <c r="D186" s="19"/>
+      <c r="D186" s="18"/>
     </row>
     <row r="187" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
-      <c r="D187" s="19"/>
+      <c r="D187" s="18"/>
     </row>
     <row r="188" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
-      <c r="D188" s="19"/>
+      <c r="D188" s="18"/>
     </row>
     <row r="189" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
-      <c r="D189" s="19"/>
+      <c r="D189" s="18"/>
     </row>
     <row r="190" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
-      <c r="D190" s="19"/>
+      <c r="D190" s="18"/>
     </row>
     <row r="191" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
-      <c r="D191" s="19"/>
+      <c r="D191" s="18"/>
     </row>
     <row r="192" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
-      <c r="D192" s="19"/>
+      <c r="D192" s="18"/>
     </row>
     <row r="193" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
-      <c r="D193" s="19"/>
+      <c r="D193" s="18"/>
     </row>
     <row r="194" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
-      <c r="D194" s="19"/>
+      <c r="D194" s="18"/>
     </row>
     <row r="195" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
-      <c r="D195" s="19"/>
+      <c r="D195" s="18"/>
     </row>
     <row r="196" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
-      <c r="D196" s="19"/>
+      <c r="D196" s="18"/>
     </row>
     <row r="197" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
-      <c r="D197" s="19"/>
+      <c r="D197" s="18"/>
     </row>
     <row r="198" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
-      <c r="D198" s="19"/>
+      <c r="D198" s="18"/>
     </row>
     <row r="199" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
-      <c r="D199" s="19"/>
+      <c r="D199" s="18"/>
     </row>
     <row r="200" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
-      <c r="D200" s="19"/>
+      <c r="D200" s="18"/>
     </row>
     <row r="201" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
-      <c r="D201" s="19"/>
+      <c r="D201" s="18"/>
     </row>
     <row r="202" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
-      <c r="D202" s="19"/>
+      <c r="D202" s="18"/>
     </row>
     <row r="203" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
-      <c r="D203" s="19"/>
+      <c r="D203" s="18"/>
     </row>
     <row r="204" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
-      <c r="D204" s="19"/>
+      <c r="D204" s="18"/>
     </row>
     <row r="205" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
-      <c r="D205" s="19"/>
+      <c r="D205" s="18"/>
     </row>
     <row r="206" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
-      <c r="D206" s="19"/>
+      <c r="D206" s="18"/>
     </row>
     <row r="207" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
-      <c r="D207" s="19"/>
+      <c r="D207" s="18"/>
     </row>
     <row r="208" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
-      <c r="D208" s="19"/>
+      <c r="D208" s="18"/>
     </row>
     <row r="209" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
-      <c r="D209" s="19"/>
+      <c r="D209" s="18"/>
     </row>
     <row r="210" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
-      <c r="D210" s="19"/>
+      <c r="D210" s="18"/>
     </row>
     <row r="211" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
-      <c r="D211" s="19"/>
+      <c r="D211" s="18"/>
     </row>
     <row r="212" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
-      <c r="D212" s="19"/>
+      <c r="D212" s="18"/>
     </row>
     <row r="213" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
-      <c r="D213" s="19"/>
+      <c r="D213" s="18"/>
     </row>
     <row r="214" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
-      <c r="D214" s="19"/>
+      <c r="D214" s="18"/>
     </row>
     <row r="215" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
-      <c r="D215" s="19"/>
+      <c r="D215" s="18"/>
     </row>
     <row r="216" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
-      <c r="D216" s="19"/>
+      <c r="D216" s="18"/>
     </row>
     <row r="217" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
-      <c r="D217" s="19"/>
+      <c r="D217" s="18"/>
     </row>
     <row r="218" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
-      <c r="D218" s="19"/>
+      <c r="D218" s="18"/>
     </row>
     <row r="219" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="3"/>
-      <c r="D219" s="19"/>
+      <c r="D219" s="18"/>
     </row>
     <row r="220" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>
-      <c r="D220" s="19"/>
+      <c r="D220" s="18"/>
     </row>
     <row r="221" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
-      <c r="D221" s="19"/>
+      <c r="D221" s="18"/>
     </row>
     <row r="222" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
-      <c r="D222" s="19"/>
+      <c r="D222" s="18"/>
     </row>
     <row r="223" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
-      <c r="D223" s="19"/>
+      <c r="D223" s="18"/>
     </row>
     <row r="224" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
-      <c r="D224" s="19"/>
+      <c r="D224" s="18"/>
     </row>
     <row r="225" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
-      <c r="D225" s="19"/>
+      <c r="D225" s="18"/>
     </row>
     <row r="226" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
-      <c r="D226" s="19"/>
+      <c r="D226" s="18"/>
     </row>
     <row r="227" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
-      <c r="D227" s="19"/>
+      <c r="D227" s="18"/>
     </row>
     <row r="228" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
-      <c r="D228" s="19"/>
+      <c r="D228" s="18"/>
     </row>
     <row r="229" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
-      <c r="D229" s="19"/>
+      <c r="D229" s="18"/>
     </row>
     <row r="230" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
-      <c r="D230" s="19"/>
+      <c r="D230" s="18"/>
     </row>
     <row r="231" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
-      <c r="D231" s="19"/>
+      <c r="D231" s="18"/>
     </row>
     <row r="232" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
-      <c r="D232" s="19"/>
+      <c r="D232" s="18"/>
     </row>
     <row r="233" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
-      <c r="D233" s="19"/>
+      <c r="D233" s="18"/>
     </row>
     <row r="234" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
-      <c r="D234" s="19"/>
+      <c r="D234" s="18"/>
     </row>
     <row r="235" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
-      <c r="D235" s="19"/>
+      <c r="D235" s="18"/>
     </row>
     <row r="236" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
-      <c r="D236" s="19"/>
+      <c r="D236" s="18"/>
     </row>
     <row r="237" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
-      <c r="D237" s="19"/>
+      <c r="D237" s="18"/>
     </row>
     <row r="238" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
-      <c r="D238" s="19"/>
+      <c r="D238" s="18"/>
     </row>
     <row r="239" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
-      <c r="D239" s="19"/>
+      <c r="D239" s="18"/>
     </row>
     <row r="240" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
-      <c r="D240" s="19"/>
+      <c r="D240" s="18"/>
     </row>
     <row r="241" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
-      <c r="D241" s="19"/>
+      <c r="D241" s="18"/>
     </row>
     <row r="242" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
-      <c r="D242" s="19"/>
+      <c r="D242" s="18"/>
     </row>
     <row r="243" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
-      <c r="D243" s="19"/>
+      <c r="D243" s="18"/>
     </row>
     <row r="244" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
-      <c r="D244" s="19"/>
+      <c r="D244" s="18"/>
     </row>
     <row r="245" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
-      <c r="D245" s="19"/>
+      <c r="D245" s="18"/>
     </row>
     <row r="246" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
-      <c r="D246" s="19"/>
+      <c r="D246" s="18"/>
     </row>
     <row r="247" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
-      <c r="D247" s="19"/>
+      <c r="D247" s="18"/>
     </row>
     <row r="248" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
-      <c r="D248" s="19"/>
+      <c r="D248" s="18"/>
     </row>
     <row r="249" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
-      <c r="D249" s="19"/>
+      <c r="D249" s="18"/>
     </row>
     <row r="250" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
-      <c r="D250" s="19"/>
+      <c r="D250" s="18"/>
     </row>
     <row r="251" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
-      <c r="D251" s="19"/>
+      <c r="D251" s="18"/>
     </row>
     <row r="252" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
-      <c r="D252" s="19"/>
+      <c r="D252" s="18"/>
     </row>
     <row r="253" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
-      <c r="D253" s="19"/>
+      <c r="D253" s="18"/>
     </row>
     <row r="254" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
-      <c r="D254" s="19"/>
+      <c r="D254" s="18"/>
     </row>
     <row r="255" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
-      <c r="D255" s="19"/>
+      <c r="D255" s="18"/>
     </row>
     <row r="256" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
-      <c r="D256" s="19"/>
+      <c r="D256" s="18"/>
     </row>
     <row r="257" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
-      <c r="D257" s="19"/>
+      <c r="D257" s="18"/>
     </row>
     <row r="258" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="3"/>
-      <c r="D258" s="19"/>
+      <c r="D258" s="18"/>
     </row>
     <row r="259" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="3"/>
-      <c r="D259" s="19"/>
+      <c r="D259" s="18"/>
     </row>
     <row r="260" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="3"/>
-      <c r="D260" s="19"/>
+      <c r="D260" s="18"/>
     </row>
     <row r="261" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="3"/>
-      <c r="D261" s="19"/>
+      <c r="D261" s="18"/>
     </row>
     <row r="262" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="3"/>
-      <c r="D262" s="19"/>
+      <c r="D262" s="18"/>
     </row>
     <row r="263" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="3"/>
-      <c r="D263" s="19"/>
+      <c r="D263" s="18"/>
     </row>
     <row r="264" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
-      <c r="D264" s="19"/>
+      <c r="D264" s="18"/>
     </row>
     <row r="265" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="3"/>
-      <c r="D265" s="19"/>
+      <c r="D265" s="18"/>
     </row>
     <row r="266" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="3"/>
-      <c r="D266" s="19"/>
+      <c r="D266" s="18"/>
     </row>
     <row r="267" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="3"/>
-      <c r="D267" s="19"/>
+      <c r="D267" s="18"/>
     </row>
     <row r="268" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="3"/>
-      <c r="D268" s="19"/>
+      <c r="D268" s="18"/>
     </row>
     <row r="269" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
-      <c r="D269" s="19"/>
+      <c r="D269" s="18"/>
     </row>
     <row r="270" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
-      <c r="D270" s="19"/>
+      <c r="D270" s="18"/>
     </row>
     <row r="271" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
-      <c r="D271" s="19"/>
+      <c r="D271" s="18"/>
     </row>
     <row r="272" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
-      <c r="D272" s="19"/>
+      <c r="D272" s="18"/>
     </row>
     <row r="273" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="3"/>
-      <c r="D273" s="19"/>
+      <c r="D273" s="18"/>
     </row>
     <row r="274" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="3"/>
-      <c r="D274" s="19"/>
+      <c r="D274" s="18"/>
     </row>
     <row r="275" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="3"/>
-      <c r="D275" s="19"/>
+      <c r="D275" s="18"/>
     </row>
     <row r="276" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="3"/>
-      <c r="D276" s="19"/>
+      <c r="D276" s="18"/>
     </row>
     <row r="277" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="3"/>
-      <c r="D277" s="19"/>
+      <c r="D277" s="18"/>
     </row>
     <row r="278" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="3"/>
-      <c r="D278" s="19"/>
+      <c r="D278" s="18"/>
     </row>
     <row r="279" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="3"/>
-      <c r="D279" s="19"/>
+      <c r="D279" s="18"/>
     </row>
     <row r="280" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="3"/>
-      <c r="D280" s="19"/>
+      <c r="D280" s="18"/>
     </row>
     <row r="281" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="3"/>
-      <c r="D281" s="19"/>
+      <c r="D281" s="18"/>
     </row>
     <row r="282" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="3"/>
-      <c r="D282" s="19"/>
+      <c r="D282" s="18"/>
     </row>
     <row r="283" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="3"/>
-      <c r="D283" s="19"/>
+      <c r="D283" s="18"/>
     </row>
     <row r="284" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="3"/>
-      <c r="D284" s="19"/>
+      <c r="D284" s="18"/>
     </row>
     <row r="285" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="3"/>
-      <c r="D285" s="19"/>
+      <c r="D285" s="18"/>
     </row>
     <row r="286" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
-      <c r="D286" s="19"/>
+      <c r="D286" s="18"/>
     </row>
     <row r="287" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
-      <c r="D287" s="19"/>
+      <c r="D287" s="18"/>
     </row>
     <row r="288" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="3"/>
-      <c r="D288" s="19"/>
+      <c r="D288" s="18"/>
     </row>
     <row r="289" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="3"/>
-      <c r="D289" s="19"/>
+      <c r="D289" s="18"/>
     </row>
     <row r="290" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="3"/>
-      <c r="D290" s="19"/>
+      <c r="D290" s="18"/>
     </row>
     <row r="291" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="3"/>
-      <c r="D291" s="19"/>
+      <c r="D291" s="18"/>
     </row>
     <row r="292" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="3"/>
-      <c r="D292" s="19"/>
+      <c r="D292" s="18"/>
     </row>
     <row r="293" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="3"/>
-      <c r="D293" s="19"/>
+      <c r="D293" s="18"/>
     </row>
     <row r="294" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="3"/>
-      <c r="D294" s="19"/>
+      <c r="D294" s="18"/>
     </row>
     <row r="295" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="3"/>
-      <c r="D295" s="19"/>
+      <c r="D295" s="18"/>
     </row>
     <row r="296" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="3"/>
-      <c r="D296" s="19"/>
+      <c r="D296" s="18"/>
     </row>
     <row r="297" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="3"/>
-      <c r="D297" s="19"/>
+      <c r="D297" s="18"/>
     </row>
     <row r="298" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="3"/>
-      <c r="D298" s="19"/>
+      <c r="D298" s="18"/>
     </row>
     <row r="299" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="3"/>
-      <c r="D299" s="19"/>
+      <c r="D299" s="18"/>
     </row>
     <row r="300" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="3"/>
-      <c r="D300" s="19"/>
+      <c r="D300" s="18"/>
     </row>
     <row r="301" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
-      <c r="D301" s="19"/>
+      <c r="D301" s="18"/>
     </row>
     <row r="302" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
-      <c r="D302" s="19"/>
+      <c r="D302" s="18"/>
     </row>
     <row r="303" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="3"/>
-      <c r="D303" s="19"/>
+      <c r="D303" s="18"/>
     </row>
     <row r="304" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="3"/>
-      <c r="D304" s="19"/>
+      <c r="D304" s="18"/>
     </row>
     <row r="305" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="3"/>
-      <c r="D305" s="19"/>
+      <c r="D305" s="18"/>
     </row>
     <row r="306" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="3"/>
-      <c r="D306" s="19"/>
+      <c r="D306" s="18"/>
     </row>
     <row r="307" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="3"/>
-      <c r="D307" s="19"/>
+      <c r="D307" s="18"/>
     </row>
     <row r="308" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="3"/>
-      <c r="D308" s="19"/>
+      <c r="D308" s="18"/>
     </row>
     <row r="309" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="3"/>
-      <c r="D309" s="19"/>
+      <c r="D309" s="18"/>
     </row>
     <row r="310" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="3"/>
-      <c r="D310" s="19"/>
+      <c r="D310" s="18"/>
     </row>
     <row r="311" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="3"/>
-      <c r="D311" s="19"/>
+      <c r="D311" s="18"/>
     </row>
     <row r="312" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="3"/>
-      <c r="D312" s="19"/>
+      <c r="D312" s="18"/>
     </row>
     <row r="313" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="3"/>
-      <c r="D313" s="19"/>
+      <c r="D313" s="18"/>
     </row>
     <row r="314" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="3"/>
-      <c r="D314" s="19"/>
+      <c r="D314" s="18"/>
     </row>
     <row r="315" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="3"/>
-      <c r="D315" s="19"/>
+      <c r="D315" s="18"/>
     </row>
     <row r="316" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="3"/>
-      <c r="D316" s="19"/>
+      <c r="D316" s="18"/>
     </row>
     <row r="317" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="3"/>
-      <c r="D317" s="19"/>
+      <c r="D317" s="18"/>
     </row>
     <row r="318" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="3"/>
-      <c r="D318" s="19"/>
+      <c r="D318" s="18"/>
     </row>
     <row r="319" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="3"/>
-      <c r="D319" s="19"/>
+      <c r="D319" s="18"/>
     </row>
     <row r="320" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="3"/>
-      <c r="D320" s="19"/>
+      <c r="D320" s="18"/>
     </row>
     <row r="321" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="3"/>
-      <c r="D321" s="19"/>
+      <c r="D321" s="18"/>
     </row>
     <row r="322" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="3"/>
-      <c r="D322" s="19"/>
+      <c r="D322" s="18"/>
     </row>
     <row r="323" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="3"/>
-      <c r="D323" s="19"/>
+      <c r="D323" s="18"/>
     </row>
     <row r="324" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="3"/>
-      <c r="D324" s="19"/>
+      <c r="D324" s="18"/>
     </row>
     <row r="325" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="3"/>
-      <c r="D325" s="19"/>
+      <c r="D325" s="18"/>
     </row>
     <row r="326" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="3"/>
-      <c r="D326" s="19"/>
+      <c r="D326" s="18"/>
     </row>
     <row r="327" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="3"/>
-      <c r="D327" s="19"/>
+      <c r="D327" s="18"/>
     </row>
     <row r="328" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="3"/>
-      <c r="D328" s="19"/>
+      <c r="D328" s="18"/>
     </row>
     <row r="329" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="3"/>
-      <c r="D329" s="19"/>
+      <c r="D329" s="18"/>
     </row>
     <row r="330" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="3"/>
-      <c r="D330" s="19"/>
+      <c r="D330" s="18"/>
     </row>
     <row r="331" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="3"/>
-      <c r="D331" s="19"/>
+      <c r="D331" s="18"/>
     </row>
     <row r="332" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="3"/>
-      <c r="D332" s="19"/>
+      <c r="D332" s="18"/>
     </row>
     <row r="333" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="3"/>
-      <c r="D333" s="19"/>
+      <c r="D333" s="18"/>
     </row>
     <row r="334" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="3"/>
-      <c r="D334" s="19"/>
+      <c r="D334" s="18"/>
     </row>
     <row r="335" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="3"/>
-      <c r="D335" s="19"/>
+      <c r="D335" s="18"/>
     </row>
     <row r="336" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="3"/>
-      <c r="D336" s="19"/>
+      <c r="D336" s="18"/>
     </row>
     <row r="337" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="3"/>
-      <c r="D337" s="19"/>
+      <c r="D337" s="18"/>
     </row>
     <row r="338" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="3"/>
-      <c r="D338" s="19"/>
+      <c r="D338" s="18"/>
     </row>
     <row r="339" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A339" s="3"/>
-      <c r="D339" s="19"/>
+      <c r="D339" s="18"/>
     </row>
     <row r="340" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A340" s="3"/>
-      <c r="D340" s="19"/>
+      <c r="D340" s="18"/>
     </row>
     <row r="341" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="3"/>
-      <c r="D341" s="19"/>
+      <c r="D341" s="18"/>
     </row>
     <row r="342" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="3"/>
-      <c r="D342" s="19"/>
+      <c r="D342" s="18"/>
     </row>
     <row r="343" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="3"/>
-      <c r="D343" s="19"/>
+      <c r="D343" s="18"/>
     </row>
     <row r="344" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="3"/>
-      <c r="D344" s="19"/>
+      <c r="D344" s="18"/>
     </row>
     <row r="345" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="3"/>
-      <c r="D345" s="19"/>
+      <c r="D345" s="18"/>
     </row>
     <row r="346" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="3"/>
-      <c r="D346" s="19"/>
+      <c r="D346" s="18"/>
     </row>
     <row r="347" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="3"/>
-      <c r="D347" s="19"/>
+      <c r="D347" s="18"/>
     </row>
     <row r="348" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="3"/>
-      <c r="D348" s="19"/>
+      <c r="D348" s="18"/>
     </row>
     <row r="349" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="3"/>
-      <c r="D349" s="19"/>
+      <c r="D349" s="18"/>
     </row>
     <row r="350" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="3"/>
-      <c r="D350" s="19"/>
+      <c r="D350" s="18"/>
     </row>
     <row r="351" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="3"/>
-      <c r="D351" s="19"/>
+      <c r="D351" s="18"/>
     </row>
     <row r="352" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="3"/>
-      <c r="D352" s="19"/>
+      <c r="D352" s="18"/>
     </row>
     <row r="353" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="3"/>
-      <c r="D353" s="19"/>
+      <c r="D353" s="18"/>
     </row>
     <row r="354" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="3"/>
-      <c r="D354" s="19"/>
+      <c r="D354" s="18"/>
     </row>
     <row r="355" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="3"/>
-      <c r="D355" s="19"/>
+      <c r="D355" s="18"/>
     </row>
     <row r="356" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="3"/>
-      <c r="D356" s="19"/>
+      <c r="D356" s="18"/>
     </row>
     <row r="357" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="3"/>
-      <c r="D357" s="19"/>
+      <c r="D357" s="18"/>
     </row>
     <row r="358" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="3"/>
-      <c r="D358" s="19"/>
+      <c r="D358" s="18"/>
     </row>
     <row r="359" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="3"/>
-      <c r="D359" s="19"/>
+      <c r="D359" s="18"/>
     </row>
     <row r="360" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="3"/>
-      <c r="D360" s="19"/>
+      <c r="D360" s="18"/>
     </row>
     <row r="361" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="3"/>
-      <c r="D361" s="19"/>
+      <c r="D361" s="18"/>
     </row>
     <row r="362" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="3"/>
-      <c r="D362" s="19"/>
+      <c r="D362" s="18"/>
     </row>
     <row r="363" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="3"/>
-      <c r="D363" s="19"/>
+      <c r="D363" s="18"/>
     </row>
     <row r="364" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="3"/>
-      <c r="D364" s="19"/>
+      <c r="D364" s="18"/>
     </row>
     <row r="365" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="3"/>
-      <c r="D365" s="19"/>
+      <c r="D365" s="18"/>
     </row>
     <row r="366" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="3"/>
-      <c r="D366" s="19"/>
+      <c r="D366" s="18"/>
     </row>
     <row r="367" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="3"/>
-      <c r="D367" s="19"/>
+      <c r="D367" s="18"/>
     </row>
     <row r="368" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="3"/>
-      <c r="D368" s="19"/>
+      <c r="D368" s="18"/>
     </row>
     <row r="369" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="3"/>
-      <c r="D369" s="19"/>
+      <c r="D369" s="18"/>
     </row>
     <row r="370" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="3"/>
-      <c r="D370" s="19"/>
+      <c r="D370" s="18"/>
     </row>
     <row r="371" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="3"/>
-      <c r="D371" s="19"/>
+      <c r="D371" s="18"/>
     </row>
     <row r="372" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="3"/>
-      <c r="D372" s="19"/>
+      <c r="D372" s="18"/>
     </row>
     <row r="373" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="3"/>
-      <c r="D373" s="19"/>
+      <c r="D373" s="18"/>
     </row>
     <row r="374" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="3"/>
-      <c r="D374" s="19"/>
+      <c r="D374" s="18"/>
     </row>
     <row r="375" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="3"/>
-      <c r="D375" s="19"/>
+      <c r="D375" s="18"/>
     </row>
     <row r="376" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="3"/>
-      <c r="D376" s="19"/>
+      <c r="D376" s="18"/>
     </row>
     <row r="377" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="3"/>
-      <c r="D377" s="19"/>
+      <c r="D377" s="18"/>
     </row>
     <row r="378" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="3"/>
-      <c r="D378" s="19"/>
+      <c r="D378" s="18"/>
     </row>
     <row r="379" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="3"/>
-      <c r="D379" s="19"/>
+      <c r="D379" s="18"/>
     </row>
     <row r="380" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="3"/>
-      <c r="D380" s="19"/>
+      <c r="D380" s="18"/>
     </row>
     <row r="381" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="3"/>
-      <c r="D381" s="19"/>
+      <c r="D381" s="18"/>
     </row>
     <row r="382" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="3"/>
-      <c r="D382" s="19"/>
+      <c r="D382" s="18"/>
     </row>
     <row r="383" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="3"/>
-      <c r="D383" s="19"/>
+      <c r="D383" s="18"/>
     </row>
     <row r="384" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="3"/>
-      <c r="D384" s="19"/>
+      <c r="D384" s="18"/>
     </row>
     <row r="385" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="3"/>
-      <c r="D385" s="19"/>
+      <c r="D385" s="18"/>
     </row>
     <row r="386" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="3"/>
-      <c r="D386" s="19"/>
+      <c r="D386" s="18"/>
     </row>
     <row r="387" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="3"/>
-      <c r="D387" s="19"/>
+      <c r="D387" s="18"/>
     </row>
     <row r="388" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="3"/>
-      <c r="D388" s="19"/>
+      <c r="D388" s="18"/>
     </row>
     <row r="389" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="3"/>
-      <c r="D389" s="19"/>
+      <c r="D389" s="18"/>
     </row>
     <row r="390" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="3"/>
-      <c r="D390" s="19"/>
+      <c r="D390" s="18"/>
     </row>
     <row r="391" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="3"/>
-      <c r="D391" s="19"/>
+      <c r="D391" s="18"/>
     </row>
     <row r="392" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="3"/>
-      <c r="D392" s="19"/>
+      <c r="D392" s="18"/>
     </row>
     <row r="393" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="3"/>
-      <c r="D393" s="19"/>
+      <c r="D393" s="18"/>
     </row>
     <row r="394" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="3"/>
-      <c r="D394" s="19"/>
+      <c r="D394" s="18"/>
     </row>
     <row r="395" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="3"/>
-      <c r="D395" s="19"/>
+      <c r="D395" s="18"/>
     </row>
     <row r="396" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A396" s="3"/>
-      <c r="D396" s="19"/>
+      <c r="D396" s="18"/>
     </row>
     <row r="397" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="3"/>
-      <c r="D397" s="19"/>
+      <c r="D397" s="18"/>
     </row>
     <row r="398" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="3"/>
-      <c r="D398" s="19"/>
+      <c r="D398" s="18"/>
     </row>
     <row r="399" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="3"/>
-      <c r="D399" s="19"/>
+      <c r="D399" s="18"/>
     </row>
     <row r="400" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A400" s="3"/>
-      <c r="D400" s="19"/>
+      <c r="D400" s="18"/>
     </row>
     <row r="401" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A401" s="3"/>
-      <c r="D401" s="19"/>
+      <c r="D401" s="18"/>
     </row>
     <row r="402" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="3"/>
-      <c r="D402" s="19"/>
+      <c r="D402" s="18"/>
     </row>
     <row r="403" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="3"/>
-      <c r="D403" s="19"/>
+      <c r="D403" s="18"/>
     </row>
     <row r="404" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="3"/>
-      <c r="D404" s="19"/>
+      <c r="D404" s="18"/>
     </row>
     <row r="405" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="3"/>
-      <c r="D405" s="19"/>
+      <c r="D405" s="18"/>
     </row>
     <row r="406" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A406" s="3"/>
-      <c r="D406" s="19"/>
+      <c r="D406" s="18"/>
     </row>
     <row r="407" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A407" s="3"/>
-      <c r="D407" s="19"/>
+      <c r="D407" s="18"/>
     </row>
     <row r="408" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A408" s="3"/>
-      <c r="D408" s="19"/>
+      <c r="D408" s="18"/>
     </row>
     <row r="409" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A409" s="3"/>
-      <c r="D409" s="19"/>
+      <c r="D409" s="18"/>
     </row>
     <row r="410" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A410" s="3"/>
-      <c r="D410" s="19"/>
+      <c r="D410" s="18"/>
     </row>
     <row r="411" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="3"/>
-      <c r="D411" s="19"/>
+      <c r="D411" s="18"/>
     </row>
     <row r="412" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="3"/>
-      <c r="D412" s="19"/>
+      <c r="D412" s="18"/>
     </row>
     <row r="413" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="3"/>
-      <c r="D413" s="19"/>
+      <c r="D413" s="18"/>
     </row>
     <row r="414" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="3"/>
-      <c r="D414" s="19"/>
+      <c r="D414" s="18"/>
     </row>
     <row r="415" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="3"/>
-      <c r="D415" s="19"/>
+      <c r="D415" s="18"/>
     </row>
     <row r="416" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="3"/>
-      <c r="D416" s="19"/>
+      <c r="D416" s="18"/>
     </row>
     <row r="417" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A417" s="3"/>
-      <c r="D417" s="19"/>
+      <c r="D417" s="18"/>
     </row>
     <row r="418" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A418" s="3"/>
-      <c r="D418" s="19"/>
+      <c r="D418" s="18"/>
     </row>
     <row r="419" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="3"/>
-      <c r="D419" s="19"/>
+      <c r="D419" s="18"/>
     </row>
     <row r="420" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="3"/>
-      <c r="D420" s="19"/>
+      <c r="D420" s="18"/>
     </row>
     <row r="421" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A421" s="3"/>
-      <c r="D421" s="19"/>
+      <c r="D421" s="18"/>
     </row>
     <row r="422" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="3"/>
-      <c r="D422" s="19"/>
+      <c r="D422" s="18"/>
     </row>
     <row r="423" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="3"/>
-      <c r="D423" s="19"/>
+      <c r="D423" s="18"/>
     </row>
     <row r="424" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="3"/>
-      <c r="D424" s="19"/>
+      <c r="D424" s="18"/>
     </row>
     <row r="425" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A425" s="3"/>
-      <c r="D425" s="19"/>
+      <c r="D425" s="18"/>
     </row>
     <row r="426" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A426" s="3"/>
-      <c r="D426" s="19"/>
+      <c r="D426" s="18"/>
     </row>
     <row r="427" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="3"/>
-      <c r="D427" s="19"/>
+      <c r="D427" s="18"/>
     </row>
     <row r="428" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="3"/>
-      <c r="D428" s="19"/>
+      <c r="D428" s="18"/>
     </row>
     <row r="429" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="3"/>
-      <c r="D429" s="19"/>
+      <c r="D429" s="18"/>
     </row>
     <row r="430" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="3"/>
-      <c r="D430" s="19"/>
+      <c r="D430" s="18"/>
     </row>
     <row r="431" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="3"/>
-      <c r="D431" s="19"/>
+      <c r="D431" s="18"/>
     </row>
     <row r="432" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="3"/>
-      <c r="D432" s="19"/>
+      <c r="D432" s="18"/>
     </row>
     <row r="433" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="3"/>
-      <c r="D433" s="19"/>
+      <c r="D433" s="18"/>
     </row>
     <row r="434" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="3"/>
-      <c r="D434" s="19"/>
+      <c r="D434" s="18"/>
     </row>
     <row r="435" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="3"/>
-      <c r="D435" s="19"/>
+      <c r="D435" s="18"/>
     </row>
     <row r="436" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="3"/>
-      <c r="D436" s="19"/>
+      <c r="D436" s="18"/>
     </row>
     <row r="437" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="3"/>
-      <c r="D437" s="19"/>
+      <c r="D437" s="18"/>
     </row>
     <row r="438" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A438" s="3"/>
-      <c r="D438" s="19"/>
+      <c r="D438" s="18"/>
     </row>
     <row r="439" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="3"/>
-      <c r="D439" s="19"/>
+      <c r="D439" s="18"/>
     </row>
     <row r="440" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="3"/>
-      <c r="D440" s="19"/>
+      <c r="D440" s="18"/>
     </row>
     <row r="441" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="3"/>
-      <c r="D441" s="19"/>
+      <c r="D441" s="18"/>
     </row>
     <row r="442" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A442" s="3"/>
-      <c r="D442" s="19"/>
+      <c r="D442" s="18"/>
     </row>
     <row r="443" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="3"/>
-      <c r="D443" s="19"/>
+      <c r="D443" s="18"/>
     </row>
     <row r="444" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A444" s="3"/>
-      <c r="D444" s="19"/>
+      <c r="D444" s="18"/>
     </row>
     <row r="445" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="3"/>
-      <c r="D445" s="19"/>
+      <c r="D445" s="18"/>
     </row>
     <row r="446" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="3"/>
-      <c r="D446" s="19"/>
+      <c r="D446" s="18"/>
     </row>
     <row r="447" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="3"/>
-      <c r="D447" s="19"/>
+      <c r="D447" s="18"/>
     </row>
     <row r="448" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="3"/>
-      <c r="D448" s="19"/>
+      <c r="D448" s="18"/>
     </row>
     <row r="449" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="3"/>
-      <c r="D449" s="19"/>
+      <c r="D449" s="18"/>
     </row>
     <row r="450" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A450" s="3"/>
-      <c r="D450" s="19"/>
+      <c r="D450" s="18"/>
     </row>
     <row r="451" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A451" s="3"/>
-      <c r="D451" s="19"/>
+      <c r="D451" s="18"/>
     </row>
     <row r="452" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A452" s="3"/>
-      <c r="D452" s="19"/>
+      <c r="D452" s="18"/>
     </row>
     <row r="453" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A453" s="3"/>
-      <c r="D453" s="19"/>
+      <c r="D453" s="18"/>
     </row>
     <row r="454" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A454" s="3"/>
-      <c r="D454" s="19"/>
+      <c r="D454" s="18"/>
     </row>
     <row r="455" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A455" s="3"/>
-      <c r="D455" s="19"/>
+      <c r="D455" s="18"/>
     </row>
     <row r="456" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A456" s="3"/>
-      <c r="D456" s="19"/>
+      <c r="D456" s="18"/>
     </row>
     <row r="457" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A457" s="3"/>
-      <c r="D457" s="19"/>
+      <c r="D457" s="18"/>
     </row>
     <row r="458" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A458" s="3"/>
-      <c r="D458" s="19"/>
+      <c r="D458" s="18"/>
     </row>
     <row r="459" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A459" s="3"/>
-      <c r="D459" s="19"/>
+      <c r="D459" s="18"/>
     </row>
     <row r="460" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A460" s="3"/>
-      <c r="D460" s="19"/>
+      <c r="D460" s="18"/>
     </row>
     <row r="461" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A461" s="3"/>
-      <c r="D461" s="19"/>
+      <c r="D461" s="18"/>
     </row>
     <row r="462" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A462" s="3"/>
-      <c r="D462" s="19"/>
+      <c r="D462" s="18"/>
     </row>
     <row r="463" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A463" s="3"/>
-      <c r="D463" s="19"/>
+      <c r="D463" s="18"/>
     </row>
     <row r="464" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A464" s="3"/>
-      <c r="D464" s="19"/>
+      <c r="D464" s="18"/>
     </row>
     <row r="465" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A465" s="3"/>
-      <c r="D465" s="19"/>
+      <c r="D465" s="18"/>
     </row>
     <row r="466" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A466" s="3"/>
-      <c r="D466" s="19"/>
+      <c r="D466" s="18"/>
     </row>
     <row r="467" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A467" s="3"/>
-      <c r="D467" s="19"/>
+      <c r="D467" s="18"/>
     </row>
     <row r="468" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A468" s="3"/>
-      <c r="D468" s="19"/>
+      <c r="D468" s="18"/>
     </row>
     <row r="469" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A469" s="3"/>
-      <c r="D469" s="19"/>
+      <c r="D469" s="18"/>
     </row>
     <row r="470" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A470" s="3"/>
-      <c r="D470" s="19"/>
+      <c r="D470" s="18"/>
     </row>
     <row r="471" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A471" s="3"/>
-      <c r="D471" s="19"/>
+      <c r="D471" s="18"/>
     </row>
     <row r="472" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A472" s="3"/>
-      <c r="D472" s="19"/>
+      <c r="D472" s="18"/>
     </row>
     <row r="473" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A473" s="3"/>
-      <c r="D473" s="19"/>
+      <c r="D473" s="18"/>
     </row>
     <row r="474" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A474" s="3"/>
-      <c r="D474" s="19"/>
+      <c r="D474" s="18"/>
     </row>
     <row r="475" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A475" s="3"/>
-      <c r="D475" s="19"/>
+      <c r="D475" s="18"/>
     </row>
     <row r="476" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A476" s="3"/>
-      <c r="D476" s="19"/>
+      <c r="D476" s="18"/>
     </row>
     <row r="477" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A477" s="3"/>
-      <c r="D477" s="19"/>
+      <c r="D477" s="18"/>
     </row>
     <row r="478" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A478" s="3"/>
-      <c r="D478" s="19"/>
+      <c r="D478" s="18"/>
     </row>
     <row r="479" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A479" s="3"/>
-      <c r="D479" s="19"/>
+      <c r="D479" s="18"/>
     </row>
     <row r="480" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A480" s="3"/>
-      <c r="D480" s="19"/>
+      <c r="D480" s="18"/>
     </row>
     <row r="481" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A481" s="3"/>
-      <c r="D481" s="19"/>
+      <c r="D481" s="18"/>
     </row>
     <row r="482" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A482" s="3"/>
-      <c r="D482" s="19"/>
+      <c r="D482" s="18"/>
     </row>
     <row r="483" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A483" s="3"/>
-      <c r="D483" s="19"/>
+      <c r="D483" s="18"/>
     </row>
     <row r="484" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A484" s="3"/>
-      <c r="D484" s="19"/>
+      <c r="D484" s="18"/>
     </row>
     <row r="485" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A485" s="3"/>
-      <c r="D485" s="19"/>
+      <c r="D485" s="18"/>
     </row>
     <row r="486" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A486" s="3"/>
-      <c r="D486" s="19"/>
+      <c r="D486" s="18"/>
     </row>
     <row r="487" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A487" s="3"/>
-      <c r="D487" s="19"/>
+      <c r="D487" s="18"/>
     </row>
     <row r="488" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A488" s="3"/>
-      <c r="D488" s="19"/>
+      <c r="D488" s="18"/>
     </row>
     <row r="489" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A489" s="3"/>
-      <c r="D489" s="19"/>
+      <c r="D489" s="18"/>
     </row>
     <row r="490" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A490" s="3"/>
-      <c r="D490" s="19"/>
+      <c r="D490" s="18"/>
     </row>
     <row r="491" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A491" s="3"/>
-      <c r="D491" s="19"/>
+      <c r="D491" s="18"/>
     </row>
     <row r="492" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A492" s="3"/>
-      <c r="D492" s="19"/>
+      <c r="D492" s="18"/>
     </row>
     <row r="493" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A493" s="3"/>
-      <c r="D493" s="19"/>
+      <c r="D493" s="18"/>
     </row>
     <row r="494" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A494" s="3"/>
-      <c r="D494" s="19"/>
+      <c r="D494" s="18"/>
     </row>
     <row r="495" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A495" s="3"/>
-      <c r="D495" s="19"/>
+      <c r="D495" s="18"/>
     </row>
     <row r="496" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A496" s="3"/>
-      <c r="D496" s="19"/>
+      <c r="D496" s="18"/>
     </row>
     <row r="497" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A497" s="3"/>
-      <c r="D497" s="19"/>
+      <c r="D497" s="18"/>
     </row>
     <row r="498" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A498" s="3"/>
-      <c r="D498" s="19"/>
+      <c r="D498" s="18"/>
     </row>
     <row r="499" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A499" s="3"/>
-      <c r="D499" s="19"/>
+      <c r="D499" s="18"/>
     </row>
     <row r="500" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A500" s="3"/>
-      <c r="D500" s="19"/>
+      <c r="D500" s="18"/>
     </row>
     <row r="501" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A501" s="3"/>
-      <c r="D501" s="19"/>
+      <c r="D501" s="18"/>
     </row>
     <row r="502" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A502" s="3"/>
-      <c r="D502" s="19"/>
+      <c r="D502" s="18"/>
     </row>
     <row r="503" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A503" s="3"/>
-      <c r="D503" s="19"/>
+      <c r="D503" s="18"/>
     </row>
     <row r="504" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A504" s="3"/>
-      <c r="D504" s="19"/>
+      <c r="D504" s="18"/>
     </row>
     <row r="505" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A505" s="3"/>
-      <c r="D505" s="19"/>
+      <c r="D505" s="18"/>
     </row>
     <row r="506" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A506" s="3"/>
-      <c r="D506" s="19"/>
+      <c r="D506" s="18"/>
     </row>
     <row r="507" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A507" s="3"/>
-      <c r="D507" s="19"/>
+      <c r="D507" s="18"/>
     </row>
     <row r="508" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A508" s="3"/>
-      <c r="D508" s="19"/>
+      <c r="D508" s="18"/>
     </row>
     <row r="509" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A509" s="3"/>
-      <c r="D509" s="19"/>
+      <c r="D509" s="18"/>
     </row>
     <row r="510" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A510" s="3"/>
-      <c r="D510" s="19"/>
+      <c r="D510" s="18"/>
     </row>
     <row r="511" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A511" s="3"/>
-      <c r="D511" s="19"/>
+      <c r="D511" s="18"/>
     </row>
     <row r="512" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A512" s="3"/>
-      <c r="D512" s="19"/>
+      <c r="D512" s="18"/>
     </row>
     <row r="513" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A513" s="3"/>
-      <c r="D513" s="19"/>
+      <c r="D513" s="18"/>
     </row>
     <row r="514" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A514" s="3"/>
-      <c r="D514" s="19"/>
+      <c r="D514" s="18"/>
     </row>
     <row r="515" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A515" s="3"/>
-      <c r="D515" s="19"/>
+      <c r="D515" s="18"/>
     </row>
     <row r="516" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A516" s="3"/>
-      <c r="D516" s="19"/>
+      <c r="D516" s="18"/>
     </row>
     <row r="517" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A517" s="3"/>
-      <c r="D517" s="19"/>
+      <c r="D517" s="18"/>
     </row>
     <row r="518" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A518" s="3"/>
-      <c r="D518" s="19"/>
+      <c r="D518" s="18"/>
     </row>
     <row r="519" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A519" s="3"/>
-      <c r="D519" s="19"/>
+      <c r="D519" s="18"/>
     </row>
     <row r="520" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A520" s="3"/>
-      <c r="D520" s="19"/>
+      <c r="D520" s="18"/>
     </row>
     <row r="521" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A521" s="3"/>
-      <c r="D521" s="19"/>
+      <c r="D521" s="18"/>
     </row>
     <row r="522" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A522" s="3"/>
-      <c r="D522" s="19"/>
+      <c r="D522" s="18"/>
     </row>
     <row r="523" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A523" s="3"/>
-      <c r="D523" s="19"/>
+      <c r="D523" s="18"/>
     </row>
     <row r="524" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A524" s="3"/>
-      <c r="D524" s="19"/>
+      <c r="D524" s="18"/>
     </row>
     <row r="525" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A525" s="3"/>
-      <c r="D525" s="19"/>
+      <c r="D525" s="18"/>
     </row>
     <row r="526" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A526" s="3"/>
-      <c r="D526" s="19"/>
+      <c r="D526" s="18"/>
     </row>
     <row r="527" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A527" s="3"/>
-      <c r="D527" s="19"/>
+      <c r="D527" s="18"/>
     </row>
     <row r="528" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A528" s="3"/>
-      <c r="D528" s="19"/>
+      <c r="D528" s="18"/>
     </row>
     <row r="529" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A529" s="3"/>
-      <c r="D529" s="19"/>
+      <c r="D529" s="18"/>
     </row>
     <row r="530" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A530" s="3"/>
-      <c r="D530" s="19"/>
+      <c r="D530" s="18"/>
     </row>
     <row r="531" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A531" s="3"/>
-      <c r="D531" s="19"/>
+      <c r="D531" s="18"/>
     </row>
     <row r="532" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A532" s="3"/>
-      <c r="D532" s="19"/>
+      <c r="D532" s="18"/>
     </row>
     <row r="533" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A533" s="3"/>
-      <c r="D533" s="19"/>
+      <c r="D533" s="18"/>
     </row>
     <row r="534" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A534" s="3"/>
-      <c r="D534" s="19"/>
+      <c r="D534" s="18"/>
     </row>
     <row r="535" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A535" s="3"/>
-      <c r="D535" s="19"/>
+      <c r="D535" s="18"/>
     </row>
     <row r="536" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A536" s="3"/>
-      <c r="D536" s="19"/>
+      <c r="D536" s="18"/>
     </row>
     <row r="537" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A537" s="3"/>
-      <c r="D537" s="19"/>
+      <c r="D537" s="18"/>
     </row>
     <row r="538" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A538" s="3"/>
-      <c r="D538" s="19"/>
+      <c r="D538" s="18"/>
     </row>
     <row r="539" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A539" s="3"/>
-      <c r="D539" s="19"/>
+      <c r="D539" s="18"/>
     </row>
     <row r="540" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A540" s="3"/>
-      <c r="D540" s="19"/>
+      <c r="D540" s="18"/>
     </row>
     <row r="541" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A541" s="3"/>
-      <c r="D541" s="19"/>
+      <c r="D541" s="18"/>
     </row>
     <row r="542" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A542" s="3"/>
-      <c r="D542" s="19"/>
+      <c r="D542" s="18"/>
     </row>
     <row r="543" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A543" s="3"/>
-      <c r="D543" s="19"/>
+      <c r="D543" s="18"/>
     </row>
     <row r="544" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A544" s="3"/>
-      <c r="D544" s="19"/>
+      <c r="D544" s="18"/>
     </row>
     <row r="545" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A545" s="3"/>
-      <c r="D545" s="19"/>
+      <c r="D545" s="18"/>
     </row>
     <row r="546" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A546" s="3"/>
-      <c r="D546" s="19"/>
+      <c r="D546" s="18"/>
     </row>
     <row r="547" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A547" s="3"/>
-      <c r="D547" s="19"/>
+      <c r="D547" s="18"/>
     </row>
     <row r="548" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A548" s="3"/>
-      <c r="D548" s="19"/>
+      <c r="D548" s="18"/>
     </row>
     <row r="549" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A549" s="3"/>
-      <c r="D549" s="19"/>
+      <c r="D549" s="18"/>
     </row>
     <row r="550" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A550" s="3"/>
-      <c r="D550" s="19"/>
+      <c r="D550" s="18"/>
     </row>
     <row r="551" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A551" s="3"/>
-      <c r="D551" s="19"/>
+      <c r="D551" s="18"/>
     </row>
     <row r="552" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A552" s="3"/>
-      <c r="D552" s="19"/>
+      <c r="D552" s="18"/>
     </row>
     <row r="553" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A553" s="3"/>
-      <c r="D553" s="19"/>
+      <c r="D553" s="18"/>
     </row>
     <row r="554" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A554" s="3"/>
-      <c r="D554" s="19"/>
+      <c r="D554" s="18"/>
     </row>
     <row r="555" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A555" s="3"/>
-      <c r="D555" s="19"/>
+      <c r="D555" s="18"/>
     </row>
     <row r="556" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A556" s="3"/>
-      <c r="D556" s="19"/>
+      <c r="D556" s="18"/>
     </row>
     <row r="557" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A557" s="3"/>
-      <c r="D557" s="19"/>
+      <c r="D557" s="18"/>
     </row>
     <row r="558" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A558" s="3"/>
-      <c r="D558" s="19"/>
+      <c r="D558" s="18"/>
     </row>
     <row r="559" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A559" s="3"/>
-      <c r="D559" s="19"/>
+      <c r="D559" s="18"/>
     </row>
     <row r="560" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A560" s="3"/>
-      <c r="D560" s="19"/>
+      <c r="D560" s="18"/>
     </row>
     <row r="561" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A561" s="3"/>
-      <c r="D561" s="19"/>
+      <c r="D561" s="18"/>
     </row>
     <row r="562" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A562" s="3"/>
-      <c r="D562" s="19"/>
+      <c r="D562" s="18"/>
     </row>
     <row r="563" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A563" s="3"/>
-      <c r="D563" s="19"/>
+      <c r="D563" s="18"/>
     </row>
     <row r="564" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A564" s="3"/>
-      <c r="D564" s="19"/>
+      <c r="D564" s="18"/>
     </row>
     <row r="565" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A565" s="3"/>
-      <c r="D565" s="19"/>
+      <c r="D565" s="18"/>
     </row>
     <row r="566" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A566" s="3"/>
-      <c r="D566" s="19"/>
+      <c r="D566" s="18"/>
     </row>
     <row r="567" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A567" s="3"/>
-      <c r="D567" s="19"/>
+      <c r="D567" s="18"/>
     </row>
     <row r="568" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A568" s="3"/>
-      <c r="D568" s="19"/>
+      <c r="D568" s="18"/>
     </row>
     <row r="569" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A569" s="3"/>
-      <c r="D569" s="19"/>
+      <c r="D569" s="18"/>
     </row>
     <row r="570" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A570" s="3"/>
-      <c r="D570" s="19"/>
+      <c r="D570" s="18"/>
     </row>
     <row r="571" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A571" s="3"/>
-      <c r="D571" s="19"/>
+      <c r="D571" s="18"/>
     </row>
     <row r="572" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A572" s="3"/>
-      <c r="D572" s="19"/>
+      <c r="D572" s="18"/>
     </row>
     <row r="573" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A573" s="3"/>
-      <c r="D573" s="19"/>
+      <c r="D573" s="18"/>
     </row>
     <row r="574" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A574" s="3"/>
-      <c r="D574" s="19"/>
+      <c r="D574" s="18"/>
     </row>
     <row r="575" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A575" s="3"/>
-      <c r="D575" s="19"/>
+      <c r="D575" s="18"/>
     </row>
     <row r="576" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A576" s="3"/>
-      <c r="D576" s="19"/>
+      <c r="D576" s="18"/>
     </row>
     <row r="577" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A577" s="3"/>
-      <c r="D577" s="19"/>
+      <c r="D577" s="18"/>
     </row>
     <row r="578" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A578" s="3"/>
-      <c r="D578" s="19"/>
+      <c r="D578" s="18"/>
     </row>
     <row r="579" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A579" s="3"/>
-      <c r="D579" s="19"/>
+      <c r="D579" s="18"/>
     </row>
     <row r="580" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A580" s="3"/>
-      <c r="D580" s="19"/>
+      <c r="D580" s="18"/>
     </row>
     <row r="581" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A581" s="3"/>
-      <c r="D581" s="19"/>
+      <c r="D581" s="18"/>
     </row>
     <row r="582" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A582" s="3"/>
-      <c r="D582" s="19"/>
+      <c r="D582" s="18"/>
     </row>
     <row r="583" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A583" s="3"/>
-      <c r="D583" s="19"/>
+      <c r="D583" s="18"/>
     </row>
     <row r="584" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A584" s="3"/>
-      <c r="D584" s="19"/>
+      <c r="D584" s="18"/>
     </row>
     <row r="585" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A585" s="3"/>
-      <c r="D585" s="19"/>
+      <c r="D585" s="18"/>
     </row>
     <row r="586" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A586" s="3"/>
-      <c r="D586" s="19"/>
+      <c r="D586" s="18"/>
     </row>
     <row r="587" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A587" s="3"/>
-      <c r="D587" s="19"/>
+      <c r="D587" s="18"/>
     </row>
     <row r="588" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A588" s="3"/>
-      <c r="D588" s="19"/>
+      <c r="D588" s="18"/>
     </row>
     <row r="589" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A589" s="3"/>
-      <c r="D589" s="19"/>
+      <c r="D589" s="18"/>
     </row>
     <row r="590" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A590" s="3"/>
-      <c r="D590" s="19"/>
+      <c r="D590" s="18"/>
     </row>
     <row r="591" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A591" s="3"/>
-      <c r="D591" s="19"/>
+      <c r="D591" s="18"/>
     </row>
     <row r="592" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A592" s="3"/>
-      <c r="D592" s="19"/>
+      <c r="D592" s="18"/>
     </row>
     <row r="593" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A593" s="3"/>
-      <c r="D593" s="19"/>
+      <c r="D593" s="18"/>
     </row>
     <row r="594" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A594" s="3"/>
-      <c r="D594" s="19"/>
+      <c r="D594" s="18"/>
     </row>
     <row r="595" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A595" s="3"/>
-      <c r="D595" s="19"/>
+      <c r="D595" s="18"/>
     </row>
     <row r="596" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A596" s="3"/>
-      <c r="D596" s="19"/>
+      <c r="D596" s="18"/>
     </row>
     <row r="597" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A597" s="3"/>
-      <c r="D597" s="19"/>
+      <c r="D597" s="18"/>
     </row>
     <row r="598" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A598" s="3"/>
-      <c r="D598" s="19"/>
+      <c r="D598" s="18"/>
     </row>
     <row r="599" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A599" s="3"/>
-      <c r="D599" s="19"/>
+      <c r="D599" s="18"/>
     </row>
     <row r="600" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A600" s="3"/>
-      <c r="D600" s="19"/>
+      <c r="D600" s="18"/>
     </row>
     <row r="601" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A601" s="3"/>
-      <c r="D601" s="19"/>
+      <c r="D601" s="18"/>
     </row>
     <row r="602" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A602" s="3"/>
-      <c r="D602" s="19"/>
+      <c r="D602" s="18"/>
     </row>
     <row r="603" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A603" s="3"/>
-      <c r="D603" s="19"/>
+      <c r="D603" s="18"/>
     </row>
     <row r="604" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A604" s="3"/>
-      <c r="D604" s="19"/>
+      <c r="D604" s="18"/>
     </row>
     <row r="605" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A605" s="3"/>
-      <c r="D605" s="19"/>
+      <c r="D605" s="18"/>
     </row>
     <row r="606" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A606" s="3"/>
-      <c r="D606" s="19"/>
+      <c r="D606" s="18"/>
     </row>
     <row r="607" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A607" s="3"/>
-      <c r="D607" s="19"/>
+      <c r="D607" s="18"/>
     </row>
     <row r="608" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A608" s="3"/>
-      <c r="D608" s="19"/>
+      <c r="D608" s="18"/>
     </row>
     <row r="609" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A609" s="3"/>
-      <c r="D609" s="19"/>
+      <c r="D609" s="18"/>
     </row>
     <row r="610" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A610" s="3"/>
-      <c r="D610" s="19"/>
+      <c r="D610" s="18"/>
     </row>
     <row r="611" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A611" s="3"/>
-      <c r="D611" s="19"/>
+      <c r="D611" s="18"/>
     </row>
     <row r="612" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A612" s="3"/>
-      <c r="D612" s="19"/>
+      <c r="D612" s="18"/>
     </row>
     <row r="613" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A613" s="3"/>
-      <c r="D613" s="19"/>
+      <c r="D613" s="18"/>
     </row>
     <row r="614" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A614" s="3"/>
-      <c r="D614" s="19"/>
+      <c r="D614" s="18"/>
     </row>
     <row r="615" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A615" s="3"/>
-      <c r="D615" s="19"/>
+      <c r="D615" s="18"/>
     </row>
     <row r="616" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A616" s="3"/>
-      <c r="D616" s="19"/>
+      <c r="D616" s="18"/>
     </row>
     <row r="617" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A617" s="3"/>
-      <c r="D617" s="19"/>
+      <c r="D617" s="18"/>
     </row>
     <row r="618" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A618" s="3"/>
-      <c r="D618" s="19"/>
+      <c r="D618" s="18"/>
     </row>
     <row r="619" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A619" s="3"/>
-      <c r="D619" s="19"/>
+      <c r="D619" s="18"/>
     </row>
     <row r="620" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A620" s="3"/>
-      <c r="D620" s="19"/>
+      <c r="D620" s="18"/>
     </row>
     <row r="621" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A621" s="3"/>
-      <c r="D621" s="19"/>
+      <c r="D621" s="18"/>
     </row>
     <row r="622" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A622" s="3"/>
-      <c r="D622" s="19"/>
+      <c r="D622" s="18"/>
     </row>
     <row r="623" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A623" s="3"/>
-      <c r="D623" s="19"/>
+      <c r="D623" s="18"/>
     </row>
     <row r="624" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A624" s="3"/>
-      <c r="D624" s="19"/>
+      <c r="D624" s="18"/>
     </row>
     <row r="625" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A625" s="3"/>
-      <c r="D625" s="19"/>
+      <c r="D625" s="18"/>
     </row>
     <row r="626" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A626" s="3"/>
-      <c r="D626" s="19"/>
+      <c r="D626" s="18"/>
     </row>
     <row r="627" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A627" s="3"/>
-      <c r="D627" s="19"/>
+      <c r="D627" s="18"/>
     </row>
     <row r="628" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A628" s="3"/>
-      <c r="D628" s="19"/>
+      <c r="D628" s="18"/>
     </row>
     <row r="629" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A629" s="3"/>
-      <c r="D629" s="19"/>
+      <c r="D629" s="18"/>
     </row>
     <row r="630" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A630" s="3"/>
-      <c r="D630" s="19"/>
+      <c r="D630" s="18"/>
     </row>
     <row r="631" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A631" s="3"/>
-      <c r="D631" s="19"/>
+      <c r="D631" s="18"/>
     </row>
     <row r="632" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A632" s="3"/>
-      <c r="D632" s="19"/>
+      <c r="D632" s="18"/>
     </row>
     <row r="633" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A633" s="3"/>
-      <c r="D633" s="19"/>
+      <c r="D633" s="18"/>
     </row>
     <row r="634" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A634" s="3"/>
-      <c r="D634" s="19"/>
+      <c r="D634" s="18"/>
     </row>
     <row r="635" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A635" s="3"/>
-      <c r="D635" s="19"/>
+      <c r="D635" s="18"/>
     </row>
     <row r="636" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A636" s="3"/>
-      <c r="D636" s="19"/>
+      <c r="D636" s="18"/>
     </row>
     <row r="637" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A637" s="3"/>
-      <c r="D637" s="19"/>
+      <c r="D637" s="18"/>
     </row>
     <row r="638" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A638" s="3"/>
-      <c r="D638" s="19"/>
+      <c r="D638" s="18"/>
     </row>
     <row r="639" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A639" s="3"/>
-      <c r="D639" s="19"/>
+      <c r="D639" s="18"/>
     </row>
     <row r="640" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A640" s="3"/>
-      <c r="D640" s="19"/>
+      <c r="D640" s="18"/>
     </row>
     <row r="641" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A641" s="3"/>
-      <c r="D641" s="19"/>
+      <c r="D641" s="18"/>
     </row>
     <row r="642" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A642" s="3"/>
-      <c r="D642" s="19"/>
+      <c r="D642" s="18"/>
     </row>
     <row r="643" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A643" s="3"/>
-      <c r="D643" s="19"/>
+      <c r="D643" s="18"/>
     </row>
     <row r="644" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A644" s="3"/>
-      <c r="D644" s="19"/>
+      <c r="D644" s="18"/>
     </row>
     <row r="645" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A645" s="3"/>
-      <c r="D645" s="19"/>
+      <c r="D645" s="18"/>
     </row>
     <row r="646" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A646" s="3"/>
-      <c r="D646" s="19"/>
+      <c r="D646" s="18"/>
     </row>
     <row r="647" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A647" s="3"/>
-      <c r="D647" s="19"/>
+      <c r="D647" s="18"/>
     </row>
     <row r="648" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A648" s="3"/>
-      <c r="D648" s="19"/>
+      <c r="D648" s="18"/>
     </row>
     <row r="649" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A649" s="3"/>
-      <c r="D649" s="19"/>
+      <c r="D649" s="18"/>
     </row>
     <row r="650" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A650" s="3"/>
-      <c r="D650" s="19"/>
+      <c r="D650" s="18"/>
     </row>
     <row r="651" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A651" s="3"/>
-      <c r="D651" s="19"/>
+      <c r="D651" s="18"/>
     </row>
     <row r="652" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A652" s="3"/>
-      <c r="D652" s="19"/>
+      <c r="D652" s="18"/>
     </row>
     <row r="653" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A653" s="3"/>
-      <c r="D653" s="19"/>
+      <c r="D653" s="18"/>
     </row>
     <row r="654" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A654" s="3"/>
-      <c r="D654" s="19"/>
+      <c r="D654" s="18"/>
     </row>
     <row r="655" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A655" s="3"/>
-      <c r="D655" s="19"/>
+      <c r="D655" s="18"/>
     </row>
     <row r="656" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A656" s="3"/>
-      <c r="D656" s="19"/>
+      <c r="D656" s="18"/>
     </row>
     <row r="657" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A657" s="3"/>
-      <c r="D657" s="19"/>
+      <c r="D657" s="18"/>
     </row>
     <row r="658" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A658" s="3"/>
-      <c r="D658" s="19"/>
+      <c r="D658" s="18"/>
     </row>
     <row r="659" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A659" s="3"/>
-      <c r="D659" s="19"/>
+      <c r="D659" s="18"/>
     </row>
     <row r="660" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A660" s="3"/>
-      <c r="D660" s="19"/>
+      <c r="D660" s="18"/>
     </row>
     <row r="661" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A661" s="3"/>
-      <c r="D661" s="19"/>
+      <c r="D661" s="18"/>
     </row>
     <row r="662" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A662" s="3"/>
-      <c r="D662" s="19"/>
+      <c r="D662" s="18"/>
     </row>
     <row r="663" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A663" s="3"/>
-      <c r="D663" s="19"/>
+      <c r="D663" s="18"/>
     </row>
     <row r="664" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A664" s="3"/>
-      <c r="D664" s="19"/>
+      <c r="D664" s="18"/>
     </row>
     <row r="665" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A665" s="3"/>
-      <c r="D665" s="19"/>
+      <c r="D665" s="18"/>
     </row>
     <row r="666" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A666" s="3"/>
-      <c r="D666" s="19"/>
+      <c r="D666" s="18"/>
     </row>
     <row r="667" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A667" s="3"/>
-      <c r="D667" s="19"/>
+      <c r="D667" s="18"/>
     </row>
     <row r="668" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A668" s="3"/>
-      <c r="D668" s="19"/>
+      <c r="D668" s="18"/>
     </row>
     <row r="669" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A669" s="3"/>
-      <c r="D669" s="19"/>
+      <c r="D669" s="18"/>
     </row>
     <row r="670" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A670" s="3"/>
-      <c r="D670" s="19"/>
+      <c r="D670" s="18"/>
     </row>
     <row r="671" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A671" s="3"/>
-      <c r="D671" s="19"/>
+      <c r="D671" s="18"/>
     </row>
     <row r="672" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A672" s="3"/>
-      <c r="D672" s="19"/>
+      <c r="D672" s="18"/>
     </row>
     <row r="673" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A673" s="3"/>
-      <c r="D673" s="19"/>
+      <c r="D673" s="18"/>
     </row>
     <row r="674" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A674" s="3"/>
-      <c r="D674" s="19"/>
+      <c r="D674" s="18"/>
     </row>
     <row r="675" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A675" s="3"/>
-      <c r="D675" s="19"/>
+      <c r="D675" s="18"/>
     </row>
     <row r="676" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A676" s="3"/>
-      <c r="D676" s="19"/>
+      <c r="D676" s="18"/>
     </row>
     <row r="677" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A677" s="3"/>
-      <c r="D677" s="19"/>
+      <c r="D677" s="18"/>
     </row>
     <row r="678" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A678" s="3"/>
-      <c r="D678" s="19"/>
+      <c r="D678" s="18"/>
     </row>
     <row r="679" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A679" s="3"/>
-      <c r="D679" s="19"/>
+      <c r="D679" s="18"/>
     </row>
     <row r="680" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A680" s="3"/>
-      <c r="D680" s="19"/>
+      <c r="D680" s="18"/>
     </row>
     <row r="681" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A681" s="3"/>
-      <c r="D681" s="19"/>
+      <c r="D681" s="18"/>
     </row>
     <row r="682" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A682" s="3"/>
-      <c r="D682" s="19"/>
+      <c r="D682" s="18"/>
     </row>
     <row r="683" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A683" s="3"/>
-      <c r="D683" s="19"/>
+      <c r="D683" s="18"/>
     </row>
     <row r="684" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A684" s="3"/>
-      <c r="D684" s="19"/>
+      <c r="D684" s="18"/>
     </row>
     <row r="685" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A685" s="3"/>
-      <c r="D685" s="19"/>
+      <c r="D685" s="18"/>
     </row>
     <row r="686" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A686" s="3"/>
-      <c r="D686" s="19"/>
+      <c r="D686" s="18"/>
     </row>
     <row r="687" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A687" s="3"/>
-      <c r="D687" s="19"/>
+      <c r="D687" s="18"/>
     </row>
     <row r="688" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A688" s="3"/>
-      <c r="D688" s="19"/>
+      <c r="D688" s="18"/>
     </row>
     <row r="689" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A689" s="3"/>
-      <c r="D689" s="19"/>
+      <c r="D689" s="18"/>
     </row>
     <row r="690" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A690" s="3"/>
-      <c r="D690" s="19"/>
+      <c r="D690" s="18"/>
     </row>
     <row r="691" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A691" s="3"/>
-      <c r="D691" s="19"/>
+      <c r="D691" s="18"/>
     </row>
     <row r="692" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A692" s="3"/>
-      <c r="D692" s="19"/>
+      <c r="D692" s="18"/>
     </row>
     <row r="693" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A693" s="3"/>
-      <c r="D693" s="19"/>
+      <c r="D693" s="18"/>
     </row>
     <row r="694" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A694" s="3"/>
-      <c r="D694" s="19"/>
+      <c r="D694" s="18"/>
     </row>
     <row r="695" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A695" s="3"/>
-      <c r="D695" s="19"/>
+      <c r="D695" s="18"/>
     </row>
     <row r="696" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A696" s="3"/>
-      <c r="D696" s="19"/>
+      <c r="D696" s="18"/>
     </row>
     <row r="697" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A697" s="3"/>
-      <c r="D697" s="19"/>
+      <c r="D697" s="18"/>
     </row>
     <row r="698" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A698" s="3"/>
-      <c r="D698" s="19"/>
+      <c r="D698" s="18"/>
     </row>
     <row r="699" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A699" s="3"/>
-      <c r="D699" s="19"/>
+      <c r="D699" s="18"/>
     </row>
     <row r="700" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A700" s="3"/>
-      <c r="D700" s="19"/>
+      <c r="D700" s="18"/>
     </row>
     <row r="701" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A701" s="3"/>
-      <c r="D701" s="19"/>
+      <c r="D701" s="18"/>
     </row>
     <row r="702" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A702" s="3"/>
-      <c r="D702" s="19"/>
+      <c r="D702" s="18"/>
     </row>
     <row r="703" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A703" s="3"/>
-      <c r="D703" s="19"/>
+      <c r="D703" s="18"/>
     </row>
     <row r="704" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A704" s="3"/>
-      <c r="D704" s="19"/>
+      <c r="D704" s="18"/>
     </row>
     <row r="705" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A705" s="3"/>
-      <c r="D705" s="19"/>
+      <c r="D705" s="18"/>
     </row>
     <row r="706" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A706" s="3"/>
-      <c r="D706" s="19"/>
+      <c r="D706" s="18"/>
     </row>
     <row r="707" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A707" s="3"/>
-      <c r="D707" s="19"/>
+      <c r="D707" s="18"/>
     </row>
     <row r="708" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A708" s="3"/>
-      <c r="D708" s="19"/>
+      <c r="D708" s="18"/>
     </row>
     <row r="709" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A709" s="3"/>
-      <c r="D709" s="19"/>
+      <c r="D709" s="18"/>
     </row>
     <row r="710" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A710" s="3"/>
-      <c r="D710" s="19"/>
+      <c r="D710" s="18"/>
     </row>
     <row r="711" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A711" s="3"/>
-      <c r="D711" s="19"/>
+      <c r="D711" s="18"/>
     </row>
     <row r="712" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A712" s="3"/>
-      <c r="D712" s="19"/>
+      <c r="D712" s="18"/>
     </row>
     <row r="713" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A713" s="3"/>
-      <c r="D713" s="19"/>
+      <c r="D713" s="18"/>
     </row>
     <row r="714" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A714" s="3"/>
-      <c r="D714" s="19"/>
+      <c r="D714" s="18"/>
     </row>
     <row r="715" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A715" s="3"/>
-      <c r="D715" s="19"/>
+      <c r="D715" s="18"/>
     </row>
     <row r="716" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A716" s="3"/>
-      <c r="D716" s="19"/>
+      <c r="D716" s="18"/>
     </row>
     <row r="717" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A717" s="3"/>
-      <c r="D717" s="19"/>
+      <c r="D717" s="18"/>
     </row>
     <row r="718" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A718" s="3"/>
-      <c r="D718" s="19"/>
+      <c r="D718" s="18"/>
     </row>
     <row r="719" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A719" s="3"/>
-      <c r="D719" s="19"/>
+      <c r="D719" s="18"/>
     </row>
     <row r="720" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A720" s="3"/>
-      <c r="D720" s="19"/>
+      <c r="D720" s="18"/>
     </row>
     <row r="721" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A721" s="3"/>
-      <c r="D721" s="19"/>
+      <c r="D721" s="18"/>
     </row>
     <row r="722" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A722" s="3"/>
-      <c r="D722" s="19"/>
+      <c r="D722" s="18"/>
     </row>
     <row r="723" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A723" s="3"/>
-      <c r="D723" s="19"/>
+      <c r="D723" s="18"/>
     </row>
     <row r="724" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A724" s="3"/>
-      <c r="D724" s="19"/>
+      <c r="D724" s="18"/>
     </row>
     <row r="725" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A725" s="3"/>
-      <c r="D725" s="19"/>
+      <c r="D725" s="18"/>
     </row>
     <row r="726" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A726" s="3"/>
-      <c r="D726" s="19"/>
+      <c r="D726" s="18"/>
     </row>
     <row r="727" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A727" s="3"/>
-      <c r="D727" s="19"/>
+      <c r="D727" s="18"/>
     </row>
     <row r="728" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A728" s="3"/>
-      <c r="D728" s="19"/>
+      <c r="D728" s="18"/>
     </row>
     <row r="729" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A729" s="3"/>
-      <c r="D729" s="19"/>
+      <c r="D729" s="18"/>
     </row>
     <row r="730" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A730" s="3"/>
-      <c r="D730" s="19"/>
+      <c r="D730" s="18"/>
     </row>
     <row r="731" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A731" s="3"/>
-      <c r="D731" s="19"/>
+      <c r="D731" s="18"/>
     </row>
     <row r="732" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A732" s="3"/>
-      <c r="D732" s="19"/>
+      <c r="D732" s="18"/>
     </row>
     <row r="733" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A733" s="3"/>
-      <c r="D733" s="19"/>
+      <c r="D733" s="18"/>
     </row>
     <row r="734" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A734" s="3"/>
-      <c r="D734" s="19"/>
+      <c r="D734" s="18"/>
     </row>
     <row r="735" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A735" s="3"/>
-      <c r="D735" s="19"/>
+      <c r="D735" s="18"/>
     </row>
     <row r="736" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A736" s="3"/>
-      <c r="D736" s="19"/>
+      <c r="D736" s="18"/>
     </row>
     <row r="737" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A737" s="3"/>
-      <c r="D737" s="19"/>
+      <c r="D737" s="18"/>
     </row>
     <row r="738" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A738" s="3"/>
-      <c r="D738" s="19"/>
+      <c r="D738" s="18"/>
     </row>
     <row r="739" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A739" s="3"/>
-      <c r="D739" s="19"/>
+      <c r="D739" s="18"/>
     </row>
     <row r="740" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A740" s="3"/>
-      <c r="D740" s="19"/>
+      <c r="D740" s="18"/>
     </row>
     <row r="741" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A741" s="3"/>
-      <c r="D741" s="19"/>
+      <c r="D741" s="18"/>
     </row>
     <row r="742" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A742" s="3"/>
-      <c r="D742" s="19"/>
+      <c r="D742" s="18"/>
     </row>
     <row r="743" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A743" s="3"/>
-      <c r="D743" s="19"/>
+      <c r="D743" s="18"/>
     </row>
     <row r="744" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A744" s="3"/>
-      <c r="D744" s="19"/>
+      <c r="D744" s="18"/>
     </row>
     <row r="745" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A745" s="3"/>
-      <c r="D745" s="19"/>
+      <c r="D745" s="18"/>
     </row>
     <row r="746" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A746" s="3"/>
-      <c r="D746" s="19"/>
+      <c r="D746" s="18"/>
     </row>
     <row r="747" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A747" s="3"/>
-      <c r="D747" s="19"/>
+      <c r="D747" s="18"/>
     </row>
     <row r="748" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A748" s="3"/>
-      <c r="D748" s="19"/>
+      <c r="D748" s="18"/>
     </row>
     <row r="749" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A749" s="3"/>
-      <c r="D749" s="19"/>
+      <c r="D749" s="18"/>
     </row>
     <row r="750" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A750" s="3"/>
-      <c r="D750" s="19"/>
+      <c r="D750" s="18"/>
     </row>
     <row r="751" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A751" s="3"/>
-      <c r="D751" s="19"/>
+      <c r="D751" s="18"/>
     </row>
     <row r="752" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A752" s="3"/>
-      <c r="D752" s="19"/>
+      <c r="D752" s="18"/>
     </row>
     <row r="753" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A753" s="3"/>
-      <c r="D753" s="19"/>
+      <c r="D753" s="18"/>
     </row>
     <row r="754" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A754" s="3"/>
-      <c r="D754" s="19"/>
+      <c r="D754" s="18"/>
     </row>
     <row r="755" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A755" s="3"/>
-      <c r="D755" s="19"/>
+      <c r="D755" s="18"/>
     </row>
     <row r="756" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A756" s="3"/>
-      <c r="D756" s="19"/>
+      <c r="D756" s="18"/>
     </row>
     <row r="757" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A757" s="3"/>
-      <c r="D757" s="19"/>
+      <c r="D757" s="18"/>
     </row>
     <row r="758" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A758" s="3"/>
-      <c r="D758" s="19"/>
+      <c r="D758" s="18"/>
     </row>
     <row r="759" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A759" s="3"/>
-      <c r="D759" s="19"/>
+      <c r="D759" s="18"/>
     </row>
     <row r="760" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A760" s="3"/>
-      <c r="D760" s="19"/>
+      <c r="D760" s="18"/>
     </row>
     <row r="761" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A761" s="3"/>
-      <c r="D761" s="19"/>
+      <c r="D761" s="18"/>
     </row>
     <row r="762" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A762" s="3"/>
-      <c r="D762" s="19"/>
+      <c r="D762" s="18"/>
     </row>
     <row r="763" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A763" s="3"/>
-      <c r="D763" s="19"/>
+      <c r="D763" s="18"/>
     </row>
     <row r="764" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A764" s="3"/>
-      <c r="D764" s="19"/>
+      <c r="D764" s="18"/>
     </row>
     <row r="765" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A765" s="3"/>
-      <c r="D765" s="19"/>
+      <c r="D765" s="18"/>
     </row>
     <row r="766" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A766" s="3"/>
-      <c r="D766" s="19"/>
+      <c r="D766" s="18"/>
     </row>
     <row r="767" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A767" s="3"/>
-      <c r="D767" s="19"/>
+      <c r="D767" s="18"/>
     </row>
     <row r="768" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A768" s="3"/>
-      <c r="D768" s="19"/>
+      <c r="D768" s="18"/>
     </row>
     <row r="769" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A769" s="3"/>
-      <c r="D769" s="19"/>
+      <c r="D769" s="18"/>
     </row>
     <row r="770" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A770" s="3"/>
-      <c r="D770" s="19"/>
+      <c r="D770" s="18"/>
     </row>
     <row r="771" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A771" s="3"/>
-      <c r="D771" s="19"/>
+      <c r="D771" s="18"/>
     </row>
     <row r="772" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A772" s="3"/>
-      <c r="D772" s="19"/>
+      <c r="D772" s="18"/>
     </row>
     <row r="773" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A773" s="3"/>
-      <c r="D773" s="19"/>
+      <c r="D773" s="18"/>
     </row>
     <row r="774" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A774" s="3"/>
-      <c r="D774" s="19"/>
+      <c r="D774" s="18"/>
     </row>
     <row r="775" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A775" s="3"/>
-      <c r="D775" s="19"/>
+      <c r="D775" s="18"/>
     </row>
     <row r="776" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A776" s="3"/>
-      <c r="D776" s="19"/>
+      <c r="D776" s="18"/>
     </row>
     <row r="777" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A777" s="3"/>
-      <c r="D777" s="19"/>
+      <c r="D777" s="18"/>
     </row>
     <row r="778" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A778" s="3"/>
-      <c r="D778" s="19"/>
+      <c r="D778" s="18"/>
     </row>
     <row r="779" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A779" s="3"/>
-      <c r="D779" s="19"/>
+      <c r="D779" s="18"/>
     </row>
     <row r="780" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A780" s="3"/>
-      <c r="D780" s="19"/>
+      <c r="D780" s="18"/>
     </row>
     <row r="781" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A781" s="3"/>
-      <c r="D781" s="19"/>
+      <c r="D781" s="18"/>
     </row>
     <row r="782" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A782" s="3"/>
-      <c r="D782" s="19"/>
+      <c r="D782" s="18"/>
     </row>
     <row r="783" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A783" s="3"/>
-      <c r="D783" s="19"/>
+      <c r="D783" s="18"/>
     </row>
     <row r="784" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A784" s="3"/>
-      <c r="D784" s="19"/>
+      <c r="D784" s="18"/>
     </row>
     <row r="785" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A785" s="3"/>
-      <c r="D785" s="19"/>
+      <c r="D785" s="18"/>
     </row>
     <row r="786" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A786" s="3"/>
-      <c r="D786" s="19"/>
+      <c r="D786" s="18"/>
     </row>
     <row r="787" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A787" s="3"/>
-      <c r="D787" s="19"/>
+      <c r="D787" s="18"/>
     </row>
     <row r="788" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A788" s="3"/>
-      <c r="D788" s="19"/>
+      <c r="D788" s="18"/>
     </row>
     <row r="789" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A789" s="3"/>
-      <c r="D789" s="19"/>
+      <c r="D789" s="18"/>
     </row>
     <row r="790" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A790" s="3"/>
-      <c r="D790" s="19"/>
+      <c r="D790" s="18"/>
     </row>
     <row r="791" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A791" s="3"/>
-      <c r="D791" s="19"/>
+      <c r="D791" s="18"/>
     </row>
     <row r="792" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A792" s="3"/>
-      <c r="D792" s="19"/>
+      <c r="D792" s="18"/>
     </row>
     <row r="793" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A793" s="3"/>
-      <c r="D793" s="19"/>
+      <c r="D793" s="18"/>
     </row>
     <row r="794" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A794" s="3"/>
-      <c r="D794" s="19"/>
+      <c r="D794" s="18"/>
     </row>
     <row r="795" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A795" s="3"/>
-      <c r="D795" s="19"/>
+      <c r="D795" s="18"/>
     </row>
     <row r="796" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A796" s="3"/>
-      <c r="D796" s="19"/>
+      <c r="D796" s="18"/>
     </row>
     <row r="797" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A797" s="3"/>
-      <c r="D797" s="19"/>
+      <c r="D797" s="18"/>
     </row>
     <row r="798" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A798" s="3"/>
-      <c r="D798" s="19"/>
+      <c r="D798" s="18"/>
     </row>
     <row r="799" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A799" s="3"/>
-      <c r="D799" s="19"/>
+      <c r="D799" s="18"/>
     </row>
     <row r="800" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A800" s="3"/>
-      <c r="D800" s="19"/>
+      <c r="D800" s="18"/>
     </row>
     <row r="801" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="3"/>
-      <c r="D801" s="19"/>
+      <c r="D801" s="18"/>
     </row>
     <row r="802" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A802" s="3"/>
-      <c r="D802" s="19"/>
+      <c r="D802" s="18"/>
     </row>
     <row r="803" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A803" s="3"/>
-      <c r="D803" s="19"/>
+      <c r="D803" s="18"/>
     </row>
     <row r="804" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A804" s="3"/>
-      <c r="D804" s="19"/>
+      <c r="D804" s="18"/>
     </row>
     <row r="805" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A805" s="3"/>
-      <c r="D805" s="19"/>
+      <c r="D805" s="18"/>
     </row>
     <row r="806" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A806" s="3"/>
-      <c r="D806" s="19"/>
+      <c r="D806" s="18"/>
     </row>
     <row r="807" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A807" s="3"/>
-      <c r="D807" s="19"/>
+      <c r="D807" s="18"/>
     </row>
     <row r="808" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A808" s="3"/>
-      <c r="D808" s="19"/>
+      <c r="D808" s="18"/>
     </row>
     <row r="809" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A809" s="3"/>
-      <c r="D809" s="19"/>
+      <c r="D809" s="18"/>
     </row>
     <row r="810" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A810" s="3"/>
-      <c r="D810" s="19"/>
+      <c r="D810" s="18"/>
     </row>
     <row r="811" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A811" s="3"/>
-      <c r="D811" s="19"/>
+      <c r="D811" s="18"/>
     </row>
     <row r="812" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A812" s="3"/>
-      <c r="D812" s="19"/>
+      <c r="D812" s="18"/>
     </row>
     <row r="813" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A813" s="3"/>
-      <c r="D813" s="19"/>
+      <c r="D813" s="18"/>
     </row>
     <row r="814" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A814" s="3"/>
-      <c r="D814" s="19"/>
+      <c r="D814" s="18"/>
     </row>
     <row r="815" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A815" s="3"/>
-      <c r="D815" s="19"/>
+      <c r="D815" s="18"/>
     </row>
     <row r="816" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A816" s="3"/>
-      <c r="D816" s="19"/>
+      <c r="D816" s="18"/>
     </row>
     <row r="817" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A817" s="3"/>
-      <c r="D817" s="19"/>
+      <c r="D817" s="18"/>
     </row>
     <row r="818" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A818" s="3"/>
-      <c r="D818" s="19"/>
+      <c r="D818" s="18"/>
     </row>
     <row r="819" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A819" s="3"/>
-      <c r="D819" s="19"/>
+      <c r="D819" s="18"/>
     </row>
     <row r="820" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A820" s="3"/>
-      <c r="D820" s="19"/>
+      <c r="D820" s="18"/>
     </row>
     <row r="821" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A821" s="3"/>
-      <c r="D821" s="19"/>
+      <c r="D821" s="18"/>
     </row>
     <row r="822" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A822" s="3"/>
-      <c r="D822" s="19"/>
+      <c r="D822" s="18"/>
     </row>
     <row r="823" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A823" s="3"/>
-      <c r="D823" s="19"/>
+      <c r="D823" s="18"/>
     </row>
     <row r="824" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A824" s="3"/>
-      <c r="D824" s="19"/>
+      <c r="D824" s="18"/>
     </row>
     <row r="825" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A825" s="3"/>
-      <c r="D825" s="19"/>
+      <c r="D825" s="18"/>
     </row>
     <row r="826" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A826" s="3"/>
-      <c r="D826" s="19"/>
+      <c r="D826" s="18"/>
     </row>
     <row r="827" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A827" s="3"/>
-      <c r="D827" s="19"/>
+      <c r="D827" s="18"/>
     </row>
     <row r="828" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A828" s="3"/>
-      <c r="D828" s="19"/>
+      <c r="D828" s="18"/>
     </row>
     <row r="829" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A829" s="3"/>
-      <c r="D829" s="19"/>
+      <c r="D829" s="18"/>
     </row>
     <row r="830" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A830" s="3"/>
-      <c r="D830" s="19"/>
+      <c r="D830" s="18"/>
     </row>
     <row r="831" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A831" s="3"/>
-      <c r="D831" s="19"/>
+      <c r="D831" s="18"/>
     </row>
     <row r="832" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A832" s="3"/>
-      <c r="D832" s="19"/>
+      <c r="D832" s="18"/>
     </row>
     <row r="833" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A833" s="3"/>
-      <c r="D833" s="19"/>
+      <c r="D833" s="18"/>
     </row>
     <row r="834" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A834" s="3"/>
-      <c r="D834" s="19"/>
+      <c r="D834" s="18"/>
     </row>
     <row r="835" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A835" s="3"/>
-      <c r="D835" s="19"/>
+      <c r="D835" s="18"/>
     </row>
     <row r="836" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A836" s="3"/>
-      <c r="D836" s="19"/>
+      <c r="D836" s="18"/>
     </row>
     <row r="837" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A837" s="3"/>
-      <c r="D837" s="19"/>
+      <c r="D837" s="18"/>
     </row>
     <row r="838" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A838" s="3"/>
-      <c r="D838" s="19"/>
+      <c r="D838" s="18"/>
     </row>
     <row r="839" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A839" s="3"/>
-      <c r="D839" s="19"/>
+      <c r="D839" s="18"/>
     </row>
     <row r="840" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A840" s="3"/>
-      <c r="D840" s="19"/>
+      <c r="D840" s="18"/>
     </row>
     <row r="841" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A841" s="3"/>
-      <c r="D841" s="19"/>
+      <c r="D841" s="18"/>
     </row>
     <row r="842" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A842" s="3"/>
-      <c r="D842" s="19"/>
+      <c r="D842" s="18"/>
     </row>
     <row r="843" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A843" s="3"/>
-      <c r="D843" s="19"/>
+      <c r="D843" s="18"/>
     </row>
     <row r="844" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A844" s="3"/>
-      <c r="D844" s="19"/>
+      <c r="D844" s="18"/>
     </row>
     <row r="845" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A845" s="3"/>
-      <c r="D845" s="19"/>
+      <c r="D845" s="18"/>
     </row>
     <row r="846" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A846" s="3"/>
-      <c r="D846" s="19"/>
+      <c r="D846" s="18"/>
     </row>
     <row r="847" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A847" s="3"/>
-      <c r="D847" s="19"/>
+      <c r="D847" s="18"/>
     </row>
     <row r="848" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A848" s="3"/>
-      <c r="D848" s="19"/>
+      <c r="D848" s="18"/>
     </row>
     <row r="849" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A849" s="3"/>
-      <c r="D849" s="19"/>
+      <c r="D849" s="18"/>
     </row>
     <row r="850" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A850" s="3"/>
-      <c r="D850" s="19"/>
+      <c r="D850" s="18"/>
     </row>
     <row r="851" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A851" s="3"/>
-      <c r="D851" s="19"/>
+      <c r="D851" s="18"/>
     </row>
     <row r="852" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A852" s="3"/>
-      <c r="D852" s="19"/>
+      <c r="D852" s="18"/>
     </row>
     <row r="853" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A853" s="3"/>
-      <c r="D853" s="19"/>
+      <c r="D853" s="18"/>
     </row>
     <row r="854" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A854" s="3"/>
-      <c r="D854" s="19"/>
+      <c r="D854" s="18"/>
     </row>
     <row r="855" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A855" s="3"/>
-      <c r="D855" s="19"/>
+      <c r="D855" s="18"/>
     </row>
     <row r="856" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A856" s="3"/>
-      <c r="D856" s="19"/>
+      <c r="D856" s="18"/>
     </row>
     <row r="857" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A857" s="3"/>
-      <c r="D857" s="19"/>
+      <c r="D857" s="18"/>
     </row>
     <row r="858" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A858" s="3"/>
-      <c r="D858" s="19"/>
+      <c r="D858" s="18"/>
     </row>
     <row r="859" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A859" s="3"/>
-      <c r="D859" s="19"/>
+      <c r="D859" s="18"/>
     </row>
     <row r="860" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A860" s="3"/>
-      <c r="D860" s="19"/>
+      <c r="D860" s="18"/>
     </row>
     <row r="861" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A861" s="3"/>
-      <c r="D861" s="19"/>
+      <c r="D861" s="18"/>
     </row>
     <row r="862" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A862" s="3"/>
-      <c r="D862" s="19"/>
+      <c r="D862" s="18"/>
     </row>
     <row r="863" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A863" s="3"/>
-      <c r="D863" s="19"/>
+      <c r="D863" s="18"/>
     </row>
     <row r="864" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A864" s="3"/>
-      <c r="D864" s="19"/>
+      <c r="D864" s="18"/>
     </row>
     <row r="865" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A865" s="3"/>
-      <c r="D865" s="19"/>
+      <c r="D865" s="18"/>
     </row>
     <row r="866" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A866" s="3"/>
-      <c r="D866" s="19"/>
+      <c r="D866" s="18"/>
     </row>
     <row r="867" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A867" s="3"/>
-      <c r="D867" s="19"/>
+      <c r="D867" s="18"/>
     </row>
     <row r="868" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A868" s="3"/>
-      <c r="D868" s="19"/>
+      <c r="D868" s="18"/>
     </row>
     <row r="869" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A869" s="3"/>
-      <c r="D869" s="19"/>
+      <c r="D869" s="18"/>
     </row>
     <row r="870" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A870" s="3"/>
-      <c r="D870" s="19"/>
+      <c r="D870" s="18"/>
     </row>
     <row r="871" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A871" s="3"/>
-      <c r="D871" s="19"/>
+      <c r="D871" s="18"/>
     </row>
     <row r="872" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A872" s="3"/>
-      <c r="D872" s="19"/>
+      <c r="D872" s="18"/>
     </row>
     <row r="873" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A873" s="3"/>
-      <c r="D873" s="19"/>
+      <c r="D873" s="18"/>
     </row>
     <row r="874" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A874" s="3"/>
-      <c r="D874" s="19"/>
+      <c r="D874" s="18"/>
     </row>
     <row r="875" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A875" s="3"/>
-      <c r="D875" s="19"/>
+      <c r="D875" s="18"/>
     </row>
     <row r="876" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A876" s="3"/>
-      <c r="D876" s="19"/>
+      <c r="D876" s="18"/>
     </row>
     <row r="877" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A877" s="3"/>
-      <c r="D877" s="19"/>
+      <c r="D877" s="18"/>
     </row>
     <row r="878" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A878" s="3"/>
-      <c r="D878" s="19"/>
+      <c r="D878" s="18"/>
     </row>
     <row r="879" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A879" s="3"/>
-      <c r="D879" s="19"/>
+      <c r="D879" s="18"/>
     </row>
     <row r="880" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A880" s="3"/>
-      <c r="D880" s="19"/>
+      <c r="D880" s="18"/>
     </row>
     <row r="881" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A881" s="3"/>
-      <c r="D881" s="19"/>
+      <c r="D881" s="18"/>
     </row>
     <row r="882" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A882" s="3"/>
-      <c r="D882" s="19"/>
+      <c r="D882" s="18"/>
     </row>
     <row r="883" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A883" s="3"/>
-      <c r="D883" s="19"/>
+      <c r="D883" s="18"/>
     </row>
     <row r="884" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A884" s="3"/>
-      <c r="D884" s="19"/>
+      <c r="D884" s="18"/>
     </row>
     <row r="885" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A885" s="3"/>
-      <c r="D885" s="19"/>
+      <c r="D885" s="18"/>
     </row>
     <row r="886" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A886" s="3"/>
-      <c r="D886" s="19"/>
+      <c r="D886" s="18"/>
     </row>
     <row r="887" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A887" s="3"/>
-      <c r="D887" s="19"/>
+      <c r="D887" s="18"/>
     </row>
     <row r="888" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A888" s="3"/>
-      <c r="D888" s="19"/>
+      <c r="D888" s="18"/>
     </row>
     <row r="889" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A889" s="3"/>
-      <c r="D889" s="19"/>
+      <c r="D889" s="18"/>
     </row>
     <row r="890" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A890" s="3"/>
-      <c r="D890" s="19"/>
+      <c r="D890" s="18"/>
     </row>
     <row r="891" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A891" s="3"/>
-      <c r="D891" s="19"/>
+      <c r="D891" s="18"/>
     </row>
     <row r="892" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A892" s="3"/>
-      <c r="D892" s="19"/>
+      <c r="D892" s="18"/>
     </row>
     <row r="893" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A893" s="3"/>
-      <c r="D893" s="19"/>
+      <c r="D893" s="18"/>
     </row>
     <row r="894" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A894" s="3"/>
-      <c r="D894" s="19"/>
+      <c r="D894" s="18"/>
     </row>
     <row r="895" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A895" s="3"/>
-      <c r="D895" s="19"/>
+      <c r="D895" s="18"/>
     </row>
     <row r="896" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A896" s="3"/>
-      <c r="D896" s="19"/>
+      <c r="D896" s="18"/>
     </row>
     <row r="897" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A897" s="3"/>
-      <c r="D897" s="19"/>
+      <c r="D897" s="18"/>
     </row>
     <row r="898" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A898" s="3"/>
-      <c r="D898" s="19"/>
+      <c r="D898" s="18"/>
     </row>
     <row r="899" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A899" s="3"/>
-      <c r="D899" s="19"/>
+      <c r="D899" s="18"/>
     </row>
     <row r="900" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A900" s="3"/>
-      <c r="D900" s="19"/>
+      <c r="D900" s="18"/>
     </row>
     <row r="901" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A901" s="3"/>
-      <c r="D901" s="19"/>
+      <c r="D901" s="18"/>
     </row>
     <row r="902" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A902" s="3"/>
-      <c r="D902" s="19"/>
+      <c r="D902" s="18"/>
     </row>
     <row r="903" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A903" s="3"/>
-      <c r="D903" s="19"/>
+      <c r="D903" s="18"/>
     </row>
     <row r="904" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A904" s="3"/>
-      <c r="D904" s="19"/>
+      <c r="D904" s="18"/>
     </row>
     <row r="905" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A905" s="3"/>
-      <c r="D905" s="19"/>
+      <c r="D905" s="18"/>
     </row>
     <row r="906" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A906" s="3"/>
-      <c r="D906" s="19"/>
+      <c r="D906" s="18"/>
     </row>
     <row r="907" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A907" s="3"/>
-      <c r="D907" s="19"/>
+      <c r="D907" s="18"/>
     </row>
     <row r="908" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A908" s="3"/>
-      <c r="D908" s="19"/>
+      <c r="D908" s="18"/>
     </row>
     <row r="909" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A909" s="3"/>
-      <c r="D909" s="19"/>
+      <c r="D909" s="18"/>
     </row>
     <row r="910" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A910" s="3"/>
-      <c r="D910" s="19"/>
+      <c r="D910" s="18"/>
     </row>
     <row r="911" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A911" s="3"/>
-      <c r="D911" s="19"/>
+      <c r="D911" s="18"/>
     </row>
     <row r="912" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A912" s="3"/>
-      <c r="D912" s="19"/>
+      <c r="D912" s="18"/>
     </row>
     <row r="913" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A913" s="3"/>
-      <c r="D913" s="19"/>
+      <c r="D913" s="18"/>
     </row>
     <row r="914" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A914" s="3"/>
-      <c r="D914" s="19"/>
+      <c r="D914" s="18"/>
     </row>
     <row r="915" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A915" s="3"/>
-      <c r="D915" s="19"/>
+      <c r="D915" s="18"/>
     </row>
     <row r="916" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A916" s="3"/>
-      <c r="D916" s="19"/>
+      <c r="D916" s="18"/>
     </row>
     <row r="917" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A917" s="3"/>
-      <c r="D917" s="19"/>
+      <c r="D917" s="18"/>
     </row>
     <row r="918" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A918" s="3"/>
-      <c r="D918" s="19"/>
+      <c r="D918" s="18"/>
     </row>
     <row r="919" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A919" s="3"/>
-      <c r="D919" s="19"/>
+      <c r="D919" s="18"/>
     </row>
     <row r="920" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A920" s="3"/>
-      <c r="D920" s="19"/>
+      <c r="D920" s="18"/>
     </row>
     <row r="921" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A921" s="3"/>
-      <c r="D921" s="19"/>
+      <c r="D921" s="18"/>
     </row>
     <row r="922" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A922" s="3"/>
-      <c r="D922" s="19"/>
+      <c r="D922" s="18"/>
     </row>
     <row r="923" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A923" s="3"/>
-      <c r="D923" s="19"/>
+      <c r="D923" s="18"/>
     </row>
     <row r="924" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A924" s="3"/>
-      <c r="D924" s="19"/>
+      <c r="D924" s="18"/>
     </row>
     <row r="925" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A925" s="3"/>
-      <c r="D925" s="19"/>
+      <c r="D925" s="18"/>
     </row>
     <row r="926" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A926" s="3"/>
-      <c r="D926" s="19"/>
+      <c r="D926" s="18"/>
     </row>
     <row r="927" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A927" s="3"/>
-      <c r="D927" s="19"/>
+      <c r="D927" s="18"/>
     </row>
     <row r="928" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A928" s="3"/>
-      <c r="D928" s="19"/>
+      <c r="D928" s="18"/>
     </row>
     <row r="929" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A929" s="3"/>
-      <c r="D929" s="19"/>
+      <c r="D929" s="18"/>
     </row>
     <row r="930" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A930" s="3"/>
-      <c r="D930" s="19"/>
+      <c r="D930" s="18"/>
     </row>
     <row r="931" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A931" s="3"/>
-      <c r="D931" s="19"/>
+      <c r="D931" s="18"/>
     </row>
     <row r="932" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A932" s="3"/>
-      <c r="D932" s="19"/>
+      <c r="D932" s="18"/>
     </row>
     <row r="933" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A933" s="3"/>
-      <c r="D933" s="19"/>
+      <c r="D933" s="18"/>
     </row>
     <row r="934" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A934" s="3"/>
-      <c r="D934" s="19"/>
+      <c r="D934" s="18"/>
     </row>
     <row r="935" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A935" s="3"/>
-      <c r="D935" s="19"/>
+      <c r="D935" s="18"/>
     </row>
     <row r="936" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A936" s="3"/>
-      <c r="D936" s="19"/>
+      <c r="D936" s="18"/>
     </row>
     <row r="937" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A937" s="3"/>
-      <c r="D937" s="19"/>
+      <c r="D937" s="18"/>
     </row>
     <row r="938" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A938" s="3"/>
-      <c r="D938" s="19"/>
+      <c r="D938" s="18"/>
     </row>
     <row r="939" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A939" s="3"/>
-      <c r="D939" s="19"/>
+      <c r="D939" s="18"/>
     </row>
     <row r="940" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A940" s="3"/>
-      <c r="D940" s="19"/>
+      <c r="D940" s="18"/>
     </row>
     <row r="941" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A941" s="3"/>
-      <c r="D941" s="19"/>
+      <c r="D941" s="18"/>
     </row>
     <row r="942" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A942" s="3"/>
-      <c r="D942" s="19"/>
+      <c r="D942" s="18"/>
     </row>
     <row r="943" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A943" s="3"/>
-      <c r="D943" s="19"/>
+      <c r="D943" s="18"/>
     </row>
     <row r="944" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A944" s="3"/>
-      <c r="D944" s="19"/>
+      <c r="D944" s="18"/>
     </row>
     <row r="945" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A945" s="3"/>
-      <c r="D945" s="19"/>
+      <c r="D945" s="18"/>
     </row>
     <row r="946" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A946" s="3"/>
-      <c r="D946" s="19"/>
+      <c r="D946" s="18"/>
     </row>
     <row r="947" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A947" s="3"/>
-      <c r="D947" s="19"/>
+      <c r="D947" s="18"/>
     </row>
     <row r="948" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A948" s="3"/>
-      <c r="D948" s="19"/>
+      <c r="D948" s="18"/>
     </row>
     <row r="949" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A949" s="3"/>
-      <c r="D949" s="19"/>
+      <c r="D949" s="18"/>
     </row>
     <row r="950" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A950" s="3"/>
-      <c r="D950" s="19"/>
+      <c r="D950" s="18"/>
     </row>
     <row r="951" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A951" s="3"/>
-      <c r="D951" s="19"/>
+      <c r="D951" s="18"/>
     </row>
     <row r="952" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A952" s="3"/>
-      <c r="D952" s="19"/>
+      <c r="D952" s="18"/>
     </row>
     <row r="953" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A953" s="3"/>
-      <c r="D953" s="19"/>
+      <c r="D953" s="18"/>
     </row>
     <row r="954" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A954" s="3"/>
-      <c r="D954" s="19"/>
+      <c r="D954" s="18"/>
     </row>
     <row r="955" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A955" s="3"/>
-      <c r="D955" s="19"/>
+      <c r="D955" s="18"/>
     </row>
     <row r="956" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A956" s="3"/>
-      <c r="D956" s="19"/>
+      <c r="D956" s="18"/>
     </row>
     <row r="957" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A957" s="3"/>
-      <c r="D957" s="19"/>
+      <c r="D957" s="18"/>
     </row>
     <row r="958" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A958" s="3"/>
-      <c r="D958" s="19"/>
+      <c r="D958" s="18"/>
     </row>
     <row r="959" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A959" s="3"/>
-      <c r="D959" s="19"/>
+      <c r="D959" s="18"/>
     </row>
     <row r="960" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A960" s="3"/>
-      <c r="D960" s="19"/>
+      <c r="D960" s="18"/>
     </row>
     <row r="961" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A961" s="3"/>
-      <c r="D961" s="19"/>
+      <c r="D961" s="18"/>
     </row>
     <row r="962" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A962" s="3"/>
-      <c r="D962" s="19"/>
+      <c r="D962" s="18"/>
     </row>
     <row r="963" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A963" s="3"/>
-      <c r="D963" s="19"/>
+      <c r="D963" s="18"/>
     </row>
     <row r="964" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A964" s="3"/>
-      <c r="D964" s="19"/>
+      <c r="D964" s="18"/>
     </row>
     <row r="965" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A965" s="3"/>
-      <c r="D965" s="19"/>
+      <c r="D965" s="18"/>
     </row>
     <row r="966" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A966" s="3"/>
-      <c r="D966" s="19"/>
+      <c r="D966" s="18"/>
     </row>
     <row r="967" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A967" s="3"/>
-      <c r="D967" s="19"/>
+      <c r="D967" s="18"/>
     </row>
     <row r="968" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A968" s="3"/>
-      <c r="D968" s="19"/>
+      <c r="D968" s="18"/>
     </row>
     <row r="969" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A969" s="3"/>
-      <c r="D969" s="19"/>
+      <c r="D969" s="18"/>
     </row>
     <row r="970" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A970" s="3"/>
-      <c r="D970" s="19"/>
+      <c r="D970" s="18"/>
     </row>
     <row r="971" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A971" s="3"/>
-      <c r="D971" s="19"/>
+      <c r="D971" s="18"/>
     </row>
     <row r="972" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A972" s="3"/>
-      <c r="D972" s="19"/>
+      <c r="D972" s="18"/>
     </row>
     <row r="973" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A973" s="3"/>
-      <c r="D973" s="19"/>
+      <c r="D973" s="18"/>
     </row>
     <row r="974" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A974" s="3"/>
-      <c r="D974" s="19"/>
+      <c r="D974" s="18"/>
     </row>
     <row r="975" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A975" s="3"/>
-      <c r="D975" s="19"/>
+      <c r="D975" s="18"/>
     </row>
     <row r="976" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A976" s="3"/>
-      <c r="D976" s="19"/>
+      <c r="D976" s="18"/>
     </row>
     <row r="977" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A977" s="3"/>
-      <c r="D977" s="19"/>
+      <c r="D977" s="18"/>
     </row>
     <row r="978" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A978" s="3"/>
-      <c r="D978" s="19"/>
+      <c r="D978" s="18"/>
     </row>
     <row r="979" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A979" s="3"/>
-      <c r="D979" s="19"/>
+      <c r="D979" s="18"/>
     </row>
     <row r="980" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A980" s="3"/>
-      <c r="D980" s="19"/>
+      <c r="D980" s="18"/>
     </row>
     <row r="981" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A981" s="3"/>
-      <c r="D981" s="19"/>
+      <c r="D981" s="18"/>
     </row>
     <row r="982" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A982" s="3"/>
-      <c r="D982" s="19"/>
+      <c r="D982" s="18"/>
     </row>
     <row r="983" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A983" s="3"/>
-      <c r="D983" s="19"/>
+      <c r="D983" s="18"/>
     </row>
     <row r="984" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A984" s="3"/>
-      <c r="D984" s="19"/>
+      <c r="D984" s="18"/>
     </row>
     <row r="985" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A985" s="3"/>
-      <c r="D985" s="19"/>
+      <c r="D985" s="18"/>
     </row>
     <row r="986" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A986" s="3"/>
-      <c r="D986" s="19"/>
+      <c r="D986" s="18"/>
     </row>
     <row r="987" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A987" s="3"/>
-      <c r="D987" s="19"/>
+      <c r="D987" s="18"/>
     </row>
     <row r="988" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A988" s="3"/>
-      <c r="D988" s="19"/>
+      <c r="D988" s="18"/>
     </row>
     <row r="989" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A989" s="3"/>
-      <c r="D989" s="19"/>
+      <c r="D989" s="18"/>
     </row>
     <row r="990" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A990" s="3"/>
-      <c r="D990" s="19"/>
+      <c r="D990" s="18"/>
     </row>
     <row r="991" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A991" s="3"/>
-      <c r="D991" s="19"/>
+      <c r="D991" s="18"/>
     </row>
     <row r="992" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A992" s="3"/>
-      <c r="D992" s="19"/>
+      <c r="D992" s="18"/>
     </row>
     <row r="993" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A993" s="3"/>
-      <c r="D993" s="19"/>
+      <c r="D993" s="18"/>
     </row>
     <row r="994" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A994" s="3"/>
-      <c r="D994" s="19"/>
+      <c r="D994" s="18"/>
     </row>
     <row r="995" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A995" s="3"/>
-      <c r="D995" s="19"/>
+      <c r="D995" s="18"/>
     </row>
     <row r="996" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A996" s="3"/>
-      <c r="D996" s="19"/>
+      <c r="D996" s="18"/>
     </row>
     <row r="997" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A997" s="3"/>
-      <c r="D997" s="19"/>
+      <c r="D997" s="18"/>
     </row>
     <row r="998" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A998" s="3"/>
-      <c r="D998" s="19"/>
+      <c r="D998" s="18"/>
     </row>
     <row r="999" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A999" s="3"/>
-      <c r="D999" s="19"/>
+      <c r="D999" s="18"/>
     </row>
     <row r="1000" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1000" s="3"/>
-      <c r="D1000" s="19"/>
+      <c r="D1000" s="18"/>
     </row>
     <row r="1001" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1001" s="3"/>
-      <c r="D1001" s="19"/>
+      <c r="D1001" s="18"/>
     </row>
     <row r="1002" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1002" s="3"/>
-      <c r="D1002" s="19"/>
+      <c r="D1002" s="18"/>
     </row>
     <row r="1003" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1003" s="3"/>
-      <c r="D1003" s="19"/>
+      <c r="D1003" s="18"/>
     </row>
     <row r="1004" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1004" s="3"/>
-      <c r="D1004" s="19"/>
+      <c r="D1004" s="18"/>
     </row>
     <row r="1005" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1005" s="3"/>
-      <c r="D1005" s="19"/>
+      <c r="D1005" s="18"/>
     </row>
     <row r="1006" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1006" s="3"/>
-      <c r="D1006" s="19"/>
+      <c r="D1006" s="18"/>
     </row>
     <row r="1007" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1007" s="3"/>
-      <c r="D1007" s="19"/>
+      <c r="D1007" s="18"/>
     </row>
     <row r="1008" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1008" s="3"/>
-      <c r="D1008" s="19"/>
+      <c r="D1008" s="18"/>
     </row>
     <row r="1009" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1009" s="3"/>
-      <c r="D1009" s="19"/>
+      <c r="D1009" s="18"/>
     </row>
     <row r="1010" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1010" s="3"/>
-      <c r="D1010" s="19"/>
+      <c r="D1010" s="18"/>
     </row>
     <row r="1011" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1011" s="3"/>
-      <c r="D1011" s="19"/>
+      <c r="D1011" s="18"/>
     </row>
     <row r="1012" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1012" s="3"/>
-      <c r="D1012" s="19"/>
+      <c r="D1012" s="18"/>
     </row>
     <row r="1013" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1013" s="3"/>
-      <c r="D1013" s="19"/>
+      <c r="D1013" s="18"/>
     </row>
     <row r="1014" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1014" s="3"/>
-      <c r="D1014" s="19"/>
+      <c r="D1014" s="18"/>
     </row>
     <row r="1015" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1015" s="3"/>
-      <c r="D1015" s="19"/>
+      <c r="D1015" s="18"/>
     </row>
     <row r="1016" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1016" s="3"/>
-      <c r="D1016" s="19"/>
+      <c r="D1016" s="18"/>
     </row>
     <row r="1017" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1017" s="3"/>
-      <c r="D1017" s="19"/>
+      <c r="D1017" s="18"/>
     </row>
     <row r="1018" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1018" s="3"/>
-      <c r="D1018" s="19"/>
+      <c r="D1018" s="18"/>
     </row>
     <row r="1019" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1019" s="3"/>
-      <c r="D1019" s="19"/>
+      <c r="D1019" s="18"/>
     </row>
     <row r="1020" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1020" s="3"/>
-      <c r="D1020" s="19"/>
+      <c r="D1020" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F125" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I125" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="https://smile.amazon.com/dp/B01HP2CEG8"/>
+        <filter val="https://smile.amazon.com/gp/product/B08PQPK379?psc=1"/>
+        <filter val="https://www.aliexpress.com/item/1005001553239891.html"/>
+        <filter val="https://www.aliexpress.com/item/1005001729369638.html"/>
+        <filter val="https://www.aliexpress.com/item/1005001844057997.html"/>
+        <filter val="https://www.aliexpress.com/item/1005001907193218.html"/>
+        <filter val="https://www.aliexpress.com/item/1005002281853664.html"/>
+        <filter val="https://www.aliexpress.com/item/1005002384250968.html"/>
+        <filter val="https://www.aliexpress.com/item/1005002384419036.html"/>
+        <filter val="https://www.aliexpress.com/item/1005003016864277.html"/>
+        <filter val="https://www.aliexpress.com/item/1005003319660324.html"/>
+        <filter val="https://www.aliexpress.com/item/4000165240093.html"/>
+        <filter val="https://www.mcmaster.com/86825K745/"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters blank="1">
+        <filter val="Amazon"/>
+        <filter val="Midwest Steel"/>
+        <filter val="Total:"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="E23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E38" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -6097,9 +6364,11 @@
     <hyperlink ref="E106" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="E115" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="E117" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E42" r:id="rId14" xr:uid="{317ED1D1-290B-4230-BAE9-E05B807BEBFE}"/>
+    <hyperlink ref="E109" r:id="rId15" xr:uid="{B9EC5DF1-375E-464C-A05E-CC886D1C5ED6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId14"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -9176,4 +9445,99 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BE1E40-300F-478B-AA15-54E43734E925}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Voron BOM.xlsx
+++ b/Voron BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zachary Cohen\Documents\GitHub\Voron2.4Build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849AFEF3-651C-4E08-ABF7-99733B431E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6904C796-4420-4E96-BF8F-2B40CDEF7F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Components List" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Voron 2.4 BOM'!$A$1:$I$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Voron 2.4 BOM'!$A$1:$J$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="187">
   <si>
     <t>Category</t>
   </si>
@@ -215,9 +215,6 @@
     <t>60x60x20 Fan (24V)</t>
   </si>
   <si>
-    <t>SKR 1.4</t>
-  </si>
-  <si>
     <t>TMC2209 Stepper Motor Driver</t>
   </si>
   <si>
@@ -570,6 +567,36 @@
   </si>
   <si>
     <t>Glantz</t>
+  </si>
+  <si>
+    <t>Closed loop driver</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005003525654549.html</t>
+  </si>
+  <si>
+    <t>Aliexpress</t>
+  </si>
+  <si>
+    <t>BTT Octopus</t>
+  </si>
+  <si>
+    <t>24v Relay</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005001714620325.html</t>
+  </si>
+  <si>
+    <t>Temperature controller</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Distribution block</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005001632125651.html</t>
   </si>
 </sst>
 </file>
@@ -1017,14 +1044,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U1020"/>
+  <dimension ref="A1:V1024"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1034,10 +1061,10 @@
     <col min="4" max="4" width="12.5703125" style="14" customWidth="1"/>
     <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="14"/>
+    <col min="8" max="9" width="14.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1048,26 +1075,29 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1076,210 +1106,210 @@
       </c>
       <c r="D2" s="17"/>
       <c r="G2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="17"/>
       <c r="G3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="17"/>
       <c r="G4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="17"/>
       <c r="G5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="17"/>
       <c r="G6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="17"/>
       <c r="G7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="17"/>
       <c r="G8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="17"/>
       <c r="G9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="17"/>
       <c r="G10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="17"/>
       <c r="G11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="17"/>
       <c r="G12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="17"/>
       <c r="G13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="17"/>
       <c r="G14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="17"/>
       <c r="G15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="17"/>
       <c r="G16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="17"/>
       <c r="G17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="17"/>
       <c r="G18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="17"/>
       <c r="G19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="17"/>
       <c r="G20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="17"/>
       <c r="G21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="17"/>
       <c r="G22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>26</v>
@@ -1290,8 +1320,17 @@
       <c r="E23" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="13">
+        <v>44511</v>
+      </c>
+      <c r="G23" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="14">
+        <v>46.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1303,7 +1342,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1316,14 +1355,15 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V24" s="3"/>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1335,10 +1375,10 @@
       </c>
       <c r="D26" s="18"/>
       <c r="G26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="2" t="s">
         <v>30</v>
@@ -1348,10 +1388,10 @@
       </c>
       <c r="D27" s="18"/>
       <c r="G27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
         <v>31</v>
@@ -1361,10 +1401,10 @@
       </c>
       <c r="D28" s="18"/>
       <c r="G28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
         <v>32</v>
@@ -1374,10 +1414,10 @@
       </c>
       <c r="D29" s="18"/>
       <c r="G29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
         <v>33</v>
@@ -1387,10 +1427,10 @@
       </c>
       <c r="D30" s="18"/>
       <c r="G30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
         <v>34</v>
@@ -1400,10 +1440,10 @@
       </c>
       <c r="D31" s="18"/>
       <c r="G31" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
         <v>35</v>
@@ -1413,10 +1453,10 @@
       </c>
       <c r="D32" s="18"/>
       <c r="G32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
         <v>36</v>
@@ -1426,10 +1466,10 @@
       </c>
       <c r="D33" s="18"/>
       <c r="G33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="2" t="s">
         <v>37</v>
@@ -1439,10 +1479,10 @@
       </c>
       <c r="D34" s="18"/>
       <c r="G34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="2" t="s">
         <v>38</v>
@@ -1452,10 +1492,10 @@
       </c>
       <c r="D35" s="18"/>
       <c r="G35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="2" t="s">
         <v>39</v>
@@ -1465,10 +1505,10 @@
       </c>
       <c r="D36" s="18"/>
       <c r="G36" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="2" t="s">
         <v>40</v>
@@ -1478,10 +1518,10 @@
       </c>
       <c r="D37" s="18"/>
       <c r="G37" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
         <v>41</v>
@@ -1495,8 +1535,17 @@
       <c r="E38" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F38" s="13">
+        <v>44511</v>
+      </c>
+      <c r="G38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H38" s="14">
+        <v>128.69999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="2" t="s">
         <v>43</v>
@@ -1505,29 +1554,39 @@
         <v>8</v>
       </c>
       <c r="D39" s="17">
-        <v>99</v>
+        <f>21.1*8</f>
+        <v>168.8</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F39" s="13">
+        <v>44511</v>
+      </c>
+      <c r="G39" t="s">
+        <v>179</v>
+      </c>
+      <c r="H39" s="14">
+        <v>114.16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="19">
         <f>SUM(D26:D39)</f>
-        <v>244.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="17"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -1541,22 +1600,25 @@
         <v>0</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F42" s="13">
         <v>44499</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H42" s="14">
         <v>53.98</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="14">
+        <v>0</v>
+      </c>
+      <c r="J42" s="13">
         <v>44501</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
         <v>48</v>
@@ -1571,7 +1633,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="2" t="s">
         <v>49</v>
@@ -1580,13 +1642,20 @@
         <v>1</v>
       </c>
       <c r="D44" s="17">
-        <v>0</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="13">
+        <v>44511</v>
+      </c>
+      <c r="G44" t="s">
+        <v>179</v>
+      </c>
+      <c r="H44" s="14">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="2" t="s">
         <v>50</v>
@@ -1601,7 +1670,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="2" t="s">
         <v>51</v>
@@ -1616,7 +1685,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="2" t="s">
         <v>52</v>
@@ -1631,7 +1700,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="2" t="s">
         <v>53</v>
@@ -1644,6 +1713,15 @@
       </c>
       <c r="E48" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="F48" s="13">
+        <v>44511</v>
+      </c>
+      <c r="G48" t="s">
+        <v>179</v>
+      </c>
+      <c r="H48" s="14">
+        <v>10.76</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1660,8 +1738,20 @@
       <c r="E49" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="13">
+        <v>44511</v>
+      </c>
+      <c r="G49" t="s">
+        <v>179</v>
+      </c>
+      <c r="H49" s="14">
+        <v>2.95</v>
+      </c>
+      <c r="I49" s="14">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="2" t="s">
         <v>57</v>
@@ -1676,7 +1766,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="2" t="s">
         <v>58</v>
@@ -1691,13 +1781,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="C52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="17">
         <v>0</v>
@@ -1706,10 +1796,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2">
         <v>7</v>
@@ -1721,10 +1811,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2">
         <v>2</v>
@@ -1736,10 +1826,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -1751,10 +1841,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -1766,10 +1856,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -1781,10 +1871,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -1796,10 +1886,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -1811,10 +1901,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -1826,10 +1916,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -1841,305 +1931,393 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
-      <c r="B62" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="2">
+      <c r="B62" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="7">
         <v>1</v>
       </c>
       <c r="D62" s="17">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="2">
+      <c r="F62" s="13">
+        <v>44511</v>
+      </c>
+      <c r="G62" t="s">
+        <v>179</v>
+      </c>
+      <c r="H62" s="14">
+        <v>1.73</v>
+      </c>
+      <c r="I62" s="14">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+      <c r="B63" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="7">
         <v>1</v>
       </c>
       <c r="D63" s="17">
-        <v>10.99</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>71</v>
+        <v>2.6</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="F63" s="13">
-        <v>44499</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>155</v>
+        <v>44511</v>
+      </c>
+      <c r="G63" t="s">
+        <v>179</v>
       </c>
       <c r="H63" s="14">
-        <v>9.99</v>
-      </c>
-      <c r="I63" s="13">
-        <v>44501</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="2">
-        <v>1</v>
+      <c r="A64" s="3"/>
+      <c r="B64" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" s="7">
+        <v>2</v>
       </c>
       <c r="D64" s="17">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
+        <v>37.76</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F64" s="13">
+        <v>44511</v>
+      </c>
+      <c r="G64" t="s">
+        <v>179</v>
+      </c>
+      <c r="H64" s="14">
+        <v>33.64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
       <c r="B65" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
       </c>
       <c r="D65" s="17">
-        <v>15.81</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="15">
-        <f>SUM(D42:D65)</f>
-        <v>47.53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="17">
+        <v>10.99</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" s="13">
+        <v>44499</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H66" s="14">
+        <v>9.99</v>
+      </c>
+      <c r="J66" s="13">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="B67" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" s="7">
+        <v>2</v>
+      </c>
+      <c r="D67" s="17">
+        <f>3.61*2</f>
+        <v>7.22</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F67" s="13">
+        <v>44511</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H67" s="14">
+        <v>5.3</v>
+      </c>
+      <c r="I67" s="14">
+        <v>1.43</v>
+      </c>
+      <c r="J67" s="13"/>
+    </row>
+    <row r="68" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C68" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D68" s="17">
         <v>4.6399999999999997</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
+      <c r="E68" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" s="13">
+        <v>44511</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H68" s="14">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="17">
+        <v>15.81</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" s="13">
+        <v>44511</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H69" s="14">
+        <v>10.54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="15">
+        <f>SUM(D42:D69)</f>
+        <v>106.83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="2">
         <v>4</v>
       </c>
-      <c r="D69" s="17">
-        <v>0</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="18"/>
-      <c r="E70" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71" s="2">
-        <v>3</v>
-      </c>
-      <c r="D71" s="17">
-        <v>3.05</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="21"/>
+      <c r="D72" s="17">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="13">
+        <v>44511</v>
+      </c>
       <c r="G72" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="H72" s="14">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C73" s="2">
-        <v>2</v>
-      </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="21"/>
-      <c r="G73" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="D73" s="17">
+        <v>0</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="18"/>
+      <c r="E74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="3"/>
+      <c r="B75" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="2">
+        <v>3</v>
+      </c>
+      <c r="D75" s="17">
+        <v>3.05</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" s="13">
+        <v>44511</v>
+      </c>
+      <c r="G75" t="s">
+        <v>179</v>
+      </c>
+      <c r="H75" s="14">
+        <v>1.59</v>
+      </c>
+      <c r="I75" s="14">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="B76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="18"/>
+      <c r="E76" s="21"/>
+      <c r="G76" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="3"/>
+      <c r="B77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2</v>
+      </c>
+      <c r="D77" s="18"/>
+      <c r="E77" s="21"/>
+      <c r="G77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="3"/>
+      <c r="B78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="2">
+        <v>10</v>
+      </c>
+      <c r="D78" s="18">
+        <v>91.99</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F78" s="13">
+        <v>44505</v>
+      </c>
+      <c r="G78" t="s">
+        <v>154</v>
+      </c>
+      <c r="H78" s="14">
+        <v>91.99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C74" s="2">
-        <v>10</v>
-      </c>
-      <c r="D74" s="18">
-        <v>91.99</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="F74" s="13">
-        <v>44505</v>
-      </c>
-      <c r="G74" t="s">
-        <v>155</v>
-      </c>
-      <c r="H74" s="14">
-        <v>91.99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="6" t="s">
+      <c r="C79" s="2">
+        <v>4</v>
+      </c>
+      <c r="D79" s="18"/>
+      <c r="E79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="15">
+        <f>SUM(D72:D79)</f>
+        <v>99.679999999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="18"/>
+    </row>
+    <row r="82" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="2">
-        <v>4</v>
-      </c>
-      <c r="D75" s="18"/>
-      <c r="E75" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="15">
-        <f>SUM(D68:D75)</f>
-        <v>99.679999999999993</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="18"/>
-    </row>
-    <row r="78" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C78" s="2">
-        <v>1</v>
-      </c>
-      <c r="D78" s="18"/>
-    </row>
-    <row r="79" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C79" s="2">
-        <v>1</v>
-      </c>
-      <c r="D79" s="17">
-        <v>0</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C80" s="2">
-        <v>2</v>
-      </c>
-      <c r="D80" s="17">
-        <v>0</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" s="2">
-        <v>1</v>
-      </c>
-      <c r="D81" s="17">
-        <v>0</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-      <c r="B82" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
       </c>
       <c r="D82" s="18"/>
     </row>
-    <row r="83" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -2151,13 +2329,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C84" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" s="17">
         <v>0</v>
@@ -2166,10 +2344,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C85" s="2">
         <v>1</v>
@@ -2181,25 +2359,20 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C86" s="2">
-        <v>8</v>
-      </c>
-      <c r="D86" s="17">
-        <v>0</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D86" s="18"/>
+    </row>
+    <row r="87" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C87" s="2">
         <v>1</v>
@@ -2212,29 +2385,42 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="15">
-        <f>SUM(D78:D87)</f>
+      <c r="A88" s="3"/>
+      <c r="B88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1</v>
+      </c>
+      <c r="D88" s="17">
         <v>0</v>
       </c>
+      <c r="E88" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="89" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="17"/>
-    </row>
-    <row r="90" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A89" s="3"/>
+      <c r="B89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1</v>
+      </c>
+      <c r="D89" s="17">
+        <v>0</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="3"/>
       <c r="B90" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C90" s="2">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D90" s="17">
         <v>0</v>
@@ -2243,10 +2429,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C91" s="2">
         <v>1</v>
@@ -2258,43 +2444,30 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
-      <c r="B92" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92" s="2">
-        <v>1</v>
-      </c>
-      <c r="D92" s="17">
+    <row r="92" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="15">
+        <f>SUM(D82:D91)</f>
         <v>0</v>
       </c>
-      <c r="E92" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C93" s="2">
-        <v>7</v>
-      </c>
-      <c r="D93" s="17">
-        <v>0</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
+    </row>
+    <row r="93" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="17"/>
+    </row>
+    <row r="94" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="B94" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C94" s="2">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D94" s="17">
         <v>0</v>
@@ -2303,13 +2476,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C95" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D95" s="17">
         <v>0</v>
@@ -2318,13 +2491,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C96" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D96" s="17">
         <v>0</v>
@@ -2333,13 +2506,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C97" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D97" s="17">
         <v>0</v>
@@ -2348,13 +2521,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C98" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D98" s="17">
         <v>0</v>
@@ -2363,13 +2536,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C99" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D99" s="17">
         <v>0</v>
@@ -2378,13 +2551,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C100" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D100" s="17">
         <v>0</v>
@@ -2393,13 +2566,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C101" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" s="17">
         <v>0</v>
@@ -2408,13 +2581,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D102" s="17">
         <v>0</v>
@@ -2423,13 +2596,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C103" s="2">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D103" s="17">
         <v>0</v>
@@ -2438,13 +2611,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D104" s="17">
         <v>0</v>
@@ -2453,10 +2626,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C105" s="2">
         <v>2</v>
@@ -2464,355 +2637,420 @@
       <c r="D105" s="17">
         <v>0</v>
       </c>
-      <c r="G105" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="E105" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
-      <c r="B106" s="6" t="s">
-        <v>115</v>
+      <c r="B106" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C106" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D106" s="17">
-        <v>14.7</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>116</v>
+        <v>0</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="15">
-        <f>SUM(D90:D106)</f>
-        <v>14.7</v>
+      <c r="A107" s="3"/>
+      <c r="B107" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="2">
+        <v>40</v>
+      </c>
+      <c r="D107" s="17">
+        <v>0</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="A108" s="3"/>
       <c r="B108" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2">
+        <v>40</v>
+      </c>
+      <c r="D108" s="17">
+        <v>0</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="3"/>
+      <c r="B109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="2">
         <v>2</v>
       </c>
-      <c r="D108" s="18"/>
-    </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C109" s="2">
-        <v>1</v>
-      </c>
-      <c r="D109" s="18"/>
-      <c r="E109" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="F109" s="13">
-        <v>44509</v>
+      <c r="D109" s="17">
+        <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>177</v>
-      </c>
-      <c r="H109" s="14">
-        <v>31.68</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1</v>
+      </c>
+      <c r="D110" s="17">
+        <v>14.7</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F110" s="13">
+        <v>44511</v>
+      </c>
+      <c r="G110" t="s">
+        <v>179</v>
+      </c>
+      <c r="H110" s="14">
+        <v>14.36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="15">
+        <f>SUM(D94:D110)</f>
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2</v>
+      </c>
+      <c r="D112" s="18"/>
+    </row>
+    <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="B113" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1</v>
+      </c>
+      <c r="D113" s="18"/>
+      <c r="E113" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F113" s="13">
+        <v>44509</v>
+      </c>
+      <c r="G113" t="s">
+        <v>176</v>
+      </c>
+      <c r="H113" s="14">
+        <v>31.68</v>
+      </c>
+      <c r="J113" s="13">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+      <c r="B114" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114" s="2">
+        <v>2</v>
+      </c>
+      <c r="D114" s="18"/>
+      <c r="F114" s="13">
+        <v>44499</v>
+      </c>
+      <c r="G114" t="s">
+        <v>154</v>
+      </c>
+      <c r="H114" s="14">
+        <v>42.34</v>
+      </c>
+      <c r="J114" s="13">
+        <v>44506</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="3"/>
+      <c r="B115" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C115" s="2">
         <v>2</v>
       </c>
-      <c r="D110" s="18"/>
-      <c r="F110" s="13">
-        <v>44499</v>
-      </c>
-      <c r="G110" t="s">
-        <v>155</v>
-      </c>
-      <c r="H110" s="14">
-        <v>42.34</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C111" s="2">
-        <v>2</v>
-      </c>
-      <c r="D111" s="18"/>
-      <c r="F111" s="13">
-        <v>44499</v>
-      </c>
-      <c r="G111" t="s">
-        <v>155</v>
-      </c>
-      <c r="H111" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="3"/>
-      <c r="B112" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C112" s="2">
-        <v>1</v>
-      </c>
-      <c r="D112" s="18"/>
-      <c r="F112" s="13">
-        <v>44499</v>
-      </c>
-      <c r="G112" t="s">
-        <v>155</v>
-      </c>
-      <c r="H112" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="15">
-        <f>SUM(D108:D112)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="1"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="7"/>
-    </row>
-    <row r="115" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C115" s="2">
-        <v>1</v>
-      </c>
-      <c r="D115" s="17">
-        <v>14.99</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="D115" s="18"/>
       <c r="F115" s="13">
         <v>44499</v>
       </c>
-      <c r="G115" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H115" s="14">
-        <v>14.24</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G115" t="s">
+        <v>154</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2">
         <v>1</v>
       </c>
-      <c r="D116" s="17">
+      <c r="D116" s="18"/>
+      <c r="F116" s="13">
+        <v>44499</v>
+      </c>
+      <c r="G116" t="s">
+        <v>154</v>
+      </c>
+      <c r="H116" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="15">
+        <f>SUM(D112:D116)</f>
         <v>0</v>
       </c>
-      <c r="E116" s="7" t="s">
+    </row>
+    <row r="118" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="7"/>
+    </row>
+    <row r="119" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1</v>
+      </c>
+      <c r="D119" s="17">
+        <v>14.99</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F119" s="13">
+        <v>44499</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H119" s="14">
+        <v>14.24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="3"/>
+      <c r="B120" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1</v>
+      </c>
+      <c r="D120" s="17">
+        <v>41.99</v>
+      </c>
+      <c r="E120" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="3"/>
-      <c r="B117" s="2" t="s">
+      <c r="G120" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H120" s="14">
+        <v>38.29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="3"/>
+      <c r="B121" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1</v>
+      </c>
+      <c r="D121" s="17">
+        <v>61.63</v>
+      </c>
+      <c r="E121" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C117" s="2">
-        <v>1</v>
-      </c>
-      <c r="D117" s="17">
-        <v>61.63</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F117" s="13">
+      <c r="F121" s="13">
         <v>44502</v>
       </c>
-      <c r="G117" t="s">
-        <v>158</v>
-      </c>
-      <c r="H117" s="14">
+      <c r="G121" t="s">
+        <v>157</v>
+      </c>
+      <c r="H121" s="14">
         <v>52.56</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="3"/>
-      <c r="B118" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C118" s="2">
-        <v>1</v>
-      </c>
-      <c r="D118" s="17">
-        <v>0</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="3"/>
-      <c r="D119" s="15">
-        <f>SUM(D115:D118)</f>
-        <v>76.62</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="1"/>
-      <c r="B120" s="2"/>
-      <c r="D120" s="17"/>
-    </row>
-    <row r="121" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D121" s="17">
-        <v>125</v>
-      </c>
-      <c r="F121" s="13"/>
-      <c r="G121" s="10"/>
-    </row>
-    <row r="122" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
+      </c>
+      <c r="C122" s="2">
+        <v>1</v>
       </c>
       <c r="D122" s="17">
-        <v>10</v>
-      </c>
-      <c r="F122" s="13"/>
-      <c r="G122" s="10"/>
-    </row>
-    <row r="123" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="D123" s="15">
-        <f>SUM(D121:D122)</f>
+        <f>SUM(D119:D122)</f>
+        <v>118.61000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="1"/>
+      <c r="B124" s="2"/>
+      <c r="D124" s="17"/>
+    </row>
+    <row r="125" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D125" s="17">
+        <v>125</v>
+      </c>
+      <c r="F125" s="13"/>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="3"/>
+      <c r="B126" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" s="17">
+        <v>10</v>
+      </c>
+      <c r="F126" s="13"/>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="3"/>
+      <c r="D127" s="15">
+        <f>SUM(D125:D126)</f>
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="3"/>
-      <c r="D124" s="18"/>
-    </row>
-    <row r="125" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="3"/>
-      <c r="D125" s="18">
-        <f>D119+D113+D107+D88+D76+D66+D40+D24+D123</f>
-        <v>665.83</v>
-      </c>
-      <c r="G125" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="H125" s="14">
-        <f>SUM(H2:H123)</f>
-        <v>296.77999999999997</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="3"/>
-      <c r="D126" s="18"/>
-    </row>
-    <row r="127" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="3"/>
-      <c r="D127" s="18"/>
-    </row>
-    <row r="128" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="D128" s="18"/>
     </row>
-    <row r="129" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
-      <c r="D129" s="18"/>
-    </row>
-    <row r="130" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D129" s="18">
+        <f>D123+D117+D111+D92+D80+D70+D40+D24+D127</f>
+        <v>836.92</v>
+      </c>
+      <c r="G129" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H129" s="14">
+        <f>SUM(H2:H127)</f>
+        <v>723.3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="D130" s="18"/>
     </row>
-    <row r="131" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="D131" s="18"/>
     </row>
-    <row r="132" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="D132" s="18"/>
     </row>
-    <row r="133" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="D133" s="18"/>
     </row>
-    <row r="134" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="D134" s="18"/>
     </row>
-    <row r="135" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="D135" s="18"/>
     </row>
-    <row r="136" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="D136" s="18"/>
     </row>
-    <row r="137" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="D137" s="18"/>
     </row>
-    <row r="138" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="D138" s="18"/>
     </row>
-    <row r="139" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="D139" s="18"/>
     </row>
-    <row r="140" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="D140" s="18"/>
     </row>
-    <row r="141" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="D141" s="18"/>
     </row>
-    <row r="142" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="D142" s="18"/>
     </row>
-    <row r="143" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="D143" s="18"/>
     </row>
-    <row r="144" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="D144" s="18"/>
     </row>
@@ -6320,55 +6558,45 @@
       <c r="A1020" s="3"/>
       <c r="D1020" s="18"/>
     </row>
+    <row r="1021" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1021" s="3"/>
+      <c r="D1021" s="18"/>
+    </row>
+    <row r="1022" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1022" s="3"/>
+      <c r="D1022" s="18"/>
+    </row>
+    <row r="1023" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1023" s="3"/>
+      <c r="D1023" s="18"/>
+    </row>
+    <row r="1024" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1024" s="3"/>
+      <c r="D1024" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I125" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="https://smile.amazon.com/dp/B01HP2CEG8"/>
-        <filter val="https://smile.amazon.com/gp/product/B08PQPK379?psc=1"/>
-        <filter val="https://www.aliexpress.com/item/1005001553239891.html"/>
-        <filter val="https://www.aliexpress.com/item/1005001729369638.html"/>
-        <filter val="https://www.aliexpress.com/item/1005001844057997.html"/>
-        <filter val="https://www.aliexpress.com/item/1005001907193218.html"/>
-        <filter val="https://www.aliexpress.com/item/1005002281853664.html"/>
-        <filter val="https://www.aliexpress.com/item/1005002384250968.html"/>
-        <filter val="https://www.aliexpress.com/item/1005002384419036.html"/>
-        <filter val="https://www.aliexpress.com/item/1005003016864277.html"/>
-        <filter val="https://www.aliexpress.com/item/1005003319660324.html"/>
-        <filter val="https://www.aliexpress.com/item/4000165240093.html"/>
-        <filter val="https://www.mcmaster.com/86825K745/"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters blank="1">
-        <filter val="Amazon"/>
-        <filter val="Midwest Steel"/>
-        <filter val="Total:"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J129" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="E23" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E38" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E39" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E48" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="E49" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E63" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E64" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E65" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E68" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E71" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E106" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E115" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E117" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E66" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E68" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E69" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E72" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E75" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E110" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E119" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E121" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="E42" r:id="rId14" xr:uid="{317ED1D1-290B-4230-BAE9-E05B807BEBFE}"/>
-    <hyperlink ref="E109" r:id="rId15" xr:uid="{B9EC5DF1-375E-464C-A05E-CC886D1C5ED6}"/>
+    <hyperlink ref="E113" r:id="rId15" xr:uid="{B9EC5DF1-375E-464C-A05E-CC886D1C5ED6}"/>
+    <hyperlink ref="E64" r:id="rId16" xr:uid="{F4C14A4D-0161-4F6A-93E9-FF257D3225EA}"/>
+    <hyperlink ref="E63" r:id="rId17" xr:uid="{C3149F95-BBD6-488F-AB7F-C21AE16D14DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId16"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -6391,74 +6619,74 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9459,82 +9687,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
